--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12-3-4-1-540857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40-4-4-1-867588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sym</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +92,14 @@
   </si>
   <si>
     <t>cpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-3-4-1-10000-875502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-4-4-1-5000-871875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,11 +575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220989040"/>
-        <c:axId val="304772160"/>
+        <c:axId val="5444064"/>
+        <c:axId val="5443504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220989040"/>
+        <c:axId val="5444064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +622,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304772160"/>
+        <c:crossAx val="5443504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304772160"/>
+        <c:axId val="5443504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220989040"/>
+        <c:crossAx val="5444064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1151,11 +1151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="299894496"/>
-        <c:axId val="299893376"/>
+        <c:axId val="274823232"/>
+        <c:axId val="274823792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="299894496"/>
+        <c:axId val="274823232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1198,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299893376"/>
+        <c:crossAx val="274823792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299893376"/>
+        <c:axId val="274823792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299894496"/>
+        <c:crossAx val="274823232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2428,16 +2428,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2752,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2803,17 +2803,17 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="E2">
         <v>0.68</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="G2">
         <f>(2*D2*E2)/(D2+E2)</f>
-        <v>0.75157894736842112</v>
+        <v>0.69942857142857151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2821,17 +2821,17 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="E3">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F3">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="G3">
         <f>(2*D3*E3)/(D3+E3)</f>
-        <v>0.68892086330935243</v>
+        <v>0.73748344370860919</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2847,14 +2847,14 @@
         <v>0.86</v>
       </c>
       <c r="E5">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="F5">
-        <v>0.56000000000000005</v>
+        <v>0.41</v>
       </c>
       <c r="G5">
         <f>(2*D5*E5)/(D5+E5)</f>
-        <v>0.71374149659863939</v>
+        <v>0.74039735099337756</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2865,133 +2865,142 @@
         <v>0.88</v>
       </c>
       <c r="E6" s="1">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="F6" s="1">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="1">
         <f>(2*D6*E6)/(D6+E6)</f>
-        <v>0.7980124223602485</v>
-      </c>
+        <v>0.82698795180722884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.85</v>
-      </c>
-      <c r="F8">
-        <v>0.21</v>
+      <c r="D8" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.37</v>
       </c>
       <c r="G8">
-        <f>(2*D8*E8)/(D8+E8)</f>
-        <v>0.87428571428571433</v>
+        <f t="shared" ref="G8:G12" si="0">(2*D8*E8)/(D8+E8)</f>
+        <v>0.78886075949367085</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G9" s="1">
-        <f>(2*D9*E9)/(D9+E9)</f>
-        <v>0.92281081081081084</v>
+      <c r="D9" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.83644970414201192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>0.92</v>
-      </c>
-      <c r="E11">
-        <v>0.78</v>
-      </c>
-      <c r="F11">
-        <v>0.31</v>
+      <c r="D11" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.28999999999999998</v>
       </c>
       <c r="G11">
-        <f>(2*D11*E11)/(D11+E11)</f>
-        <v>0.84423529411764697</v>
+        <f t="shared" si="0"/>
+        <v>0.83576470588235285</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>0.9</v>
-      </c>
-      <c r="E12">
-        <v>0.87</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.19</v>
       </c>
-      <c r="G12">
-        <f>(2*D12*E12)/(D12+E12)</f>
-        <v>0.88474576271186445</v>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88719101123595512</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>0.86</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.12</v>
+        <v>0.69</v>
+      </c>
+      <c r="E14">
+        <v>0.89</v>
+      </c>
+      <c r="F14">
+        <v>0.37</v>
       </c>
       <c r="G14">
         <f>(2*D14*E14)/(D14+E14)</f>
-        <v>0.88429378531073444</v>
+        <v>0.7773417721518987</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E15">
-        <v>0.89</v>
-      </c>
-      <c r="F15">
-        <v>0.15</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="D15" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="2">
         <f>(2*D15*E15)/(D15+E15)</f>
-        <v>0.92827956989247318</v>
+        <v>0.88158192090395471</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2999,40 +3008,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="2:7">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E17">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G17">
         <f>(2*D17*E17)/(D17+E17)</f>
-        <v>0.88898876404494387</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
+        <v>0.89455555555555555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>0.91</v>
+      <c r="D18" s="1">
+        <v>0.98</v>
       </c>
       <c r="E18" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="F18">
-        <v>0.13</v>
-      </c>
-      <c r="G18">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G18" s="1">
         <f>(2*D18*E18)/(D18+E18)</f>
-        <v>0.91</v>
+        <v>0.93829787234042561</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>20000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G20">
+        <f>(2*D20*E20)/(D20+E20)</f>
+        <v>0.93989361702127661</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.94</v>
+      </c>
+      <c r="F21">
+        <v>0.06</v>
+      </c>
+      <c r="G21" s="2">
+        <f>(2*D21*E21)/(D21+E21)</f>
+        <v>0.96907216494845361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.92</v>
+      </c>
+      <c r="F23">
+        <v>0.08</v>
+      </c>
+      <c r="G23">
+        <f>(2*D23*E23)/(D23+E23)</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="1">
+        <f>(2*D24*E24)/(D24+E24)</f>
+        <v>0.98989898989898994</v>
       </c>
     </row>
   </sheetData>
@@ -3046,13 +3136,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -3086,7 +3176,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -3095,17 +3185,17 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="E2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.31</v>
       </c>
       <c r="F2" s="2">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="G2" s="2">
         <f>ROUND((2*D2*E2)/(D2+E2),2)</f>
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3113,35 +3203,35 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="E3" s="2">
         <v>0.33</v>
       </c>
       <c r="F3" s="2">
-        <v>0.95</v>
+        <v>0.81</v>
       </c>
       <c r="G3" s="2">
         <f>ROUND((2*D3*E3)/(D3+E3),2)</f>
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.67</v>
+      <c r="D4" s="1">
+        <v>0.88</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="F4" s="2">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G20" si="0">ROUND((2*D4*E4)/(D4+E4),2)</f>
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3149,17 +3239,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3176,17 +3266,17 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="E7" s="2">
         <v>0.78</v>
       </c>
       <c r="F7" s="2">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3194,17 +3284,17 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="E8" s="2">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F8" s="2">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3212,35 +3302,35 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="E9" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="F9" s="2">
-        <v>0.64</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0.69</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3257,35 +3347,35 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="E12" s="2">
-        <v>0.63</v>
+        <v>0.94</v>
       </c>
       <c r="F12" s="2">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ref="G12:G15" si="1">ROUND((2*D12*E12)/(D12+E12),2)</f>
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3293,17 +3383,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="E14" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="F14" s="2">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3311,17 +3401,17 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="E15" s="2">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="F15" s="2">
-        <v>0.56999999999999995</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3338,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.99</v>
+        <v>0.92</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
@@ -3355,16 +3445,16 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3373,14 +3463,14 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F19" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
@@ -3391,23 +3481,23 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>5000</v>
@@ -3416,17 +3506,17 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.85</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.73</v>
-      </c>
       <c r="F22" s="2">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ref="G22:G25" si="2">ROUND((2*D22*E22)/(D22+E22),2)</f>
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="K22">
         <v>100</v>
@@ -3446,20 +3536,20 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.83</v>
+        <v>0.96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.84</v>
       </c>
       <c r="F23" s="2">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="2"/>
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <v>0.56000000000000005</v>
@@ -3479,20 +3569,20 @@
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E24" s="2">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="F24" s="2">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="2"/>
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24">
         <v>0.56999999999999995</v>
@@ -3511,21 +3601,21 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="E25" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <v>0.49</v>
@@ -3542,7 +3632,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="J26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K26">
         <v>0.49</v>
@@ -3565,17 +3655,17 @@
         <v>8</v>
       </c>
       <c r="D27" s="2">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
       <c r="E27" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F27" s="2">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ref="G27:G30" si="3">ROUND((2*D27*E27)/(D27+E27),2)</f>
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="M27" s="2"/>
     </row>
@@ -3584,17 +3674,17 @@
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="E28" s="2">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="F28" s="2">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="M28" s="2"/>
     </row>
@@ -3602,18 +3692,18 @@
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.93</v>
+      <c r="D29" s="1">
+        <v>0.94</v>
       </c>
       <c r="E29" s="2">
-        <v>0.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F29" s="2">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="K29">
         <v>100</v>
@@ -3632,21 +3722,21 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="D30" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K30">
         <v>0.27</v>
@@ -3663,7 +3753,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="J31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31">
         <v>0.22</v>
@@ -3686,20 +3776,20 @@
         <v>8</v>
       </c>
       <c r="D32" s="2">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="E32" s="2">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F32" s="2">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G35" si="4">ROUND((2*D32*E32)/(D32+E32),2)</f>
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K32">
         <v>0.19</v>
@@ -3719,20 +3809,20 @@
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="E33" s="2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F33" s="2">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="4"/>
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <v>0.19</v>
@@ -3751,18 +3841,18 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2">
-        <v>0.84</v>
+      <c r="D34" s="1">
+        <v>0.74</v>
       </c>
       <c r="E34" s="2">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="F34" s="2">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="4"/>
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="M34" s="2"/>
     </row>
@@ -3771,17 +3861,17 @@
         <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="G35" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="4"/>
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M35" s="2"/>
     </row>
@@ -3793,17 +3883,17 @@
         <v>8</v>
       </c>
       <c r="D37" s="2">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="E37" s="2">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="F37" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ref="G37:G40" si="5">ROUND((2*D37*E37)/(D37+E37),2)</f>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="M37" s="2"/>
     </row>
@@ -3811,18 +3901,18 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.49</v>
+      <c r="D38" s="1">
+        <v>0.56999999999999995</v>
       </c>
       <c r="E38" s="2">
         <v>0.19</v>
       </c>
       <c r="F38" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="5"/>
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M38" s="2"/>
     </row>
@@ -3830,18 +3920,18 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.56999999999999995</v>
+      <c r="D39" s="1">
+        <v>0.56000000000000005</v>
       </c>
       <c r="E39" s="2">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="F39" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="5"/>
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="M39" s="2"/>
     </row>
@@ -3850,17 +3940,17 @@
         <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="G40" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="5"/>
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="M40" s="2"/>
     </row>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhDProjects\RStudioProjects\mbDiscoveryR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="4020" windowWidth="25360" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="alarm" sheetId="1" r:id="rId1"/>
     <sheet name="synthetic" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +51,6 @@
   </si>
   <si>
     <t>F-measure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm (uniform)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,23 +97,86 @@
     <t>40-4-4-1-5000-871875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>Alarm (uniform)</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>IAMB</t>
+  </si>
+  <si>
+    <t>PCMB</t>
+  </si>
+  <si>
+    <t>MMLCPT</t>
+  </si>
+  <si>
+    <t>MMLCPT (sym)</t>
+  </si>
+  <si>
+    <t>0.78 (0.77, 0.79)</t>
+  </si>
+  <si>
+    <t>0.26 (0.25, 0.27)</t>
+  </si>
+  <si>
+    <t>0.72 (0.71, 0.73)</t>
+  </si>
+  <si>
+    <t>0.90 (0.89, 0.91)</t>
+  </si>
+  <si>
+    <t>0.66 (0.65, 0.67)</t>
+  </si>
+  <si>
+    <t>0.39 (0.38, 0.40)</t>
+  </si>
+  <si>
+    <t>0.93 (0.92, 0.94)</t>
+  </si>
+  <si>
+    <t>0.84 (0.84, 0.86)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,13 +185,46 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,12 +245,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,9 +266,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +294,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -227,7 +332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -282,16 +387,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82</c:v>
@@ -312,7 +417,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,16 +469,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84</c:v>
@@ -394,7 +499,7 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,16 +551,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,16 +633,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,11 +680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="5444064"/>
-        <c:axId val="5443504"/>
+        <c:axId val="2119764744"/>
+        <c:axId val="2118559576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5444064"/>
+        <c:axId val="2119764744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,10 +724,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5443504"/>
+        <c:crossAx val="2118559576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5443504"/>
+        <c:axId val="2118559576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,10 +783,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5444064"/>
+        <c:crossAx val="2119764744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,7 +826,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -751,7 +856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -765,7 +870,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -803,7 +908,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -858,16 +963,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +990,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72</c:v>
@@ -940,16 +1045,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,16 +1127,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,16 +1209,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1236,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73</c:v>
@@ -1151,11 +1256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="274823232"/>
-        <c:axId val="274823792"/>
+        <c:axId val="2118513912"/>
+        <c:axId val="2118508376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="274823232"/>
+        <c:axId val="2118513912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,10 +1300,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274823792"/>
+        <c:crossAx val="2118508376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274823792"/>
+        <c:axId val="2118508376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,10 +1359,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274823232"/>
+        <c:crossAx val="2118513912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,7 +1402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1327,7 +1432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2532,7 +2637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2567,7 +2672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2744,7 +2849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2755,14 +2860,14 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
@@ -2794,13 +2899,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0.72</v>
@@ -2818,7 +2923,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0.87</v>
@@ -2836,12 +2941,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.86</v>
@@ -2859,7 +2964,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>0.88</v>
@@ -2886,7 +2991,7 @@
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>0.76</v>
@@ -2904,7 +3009,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>0.93</v>
@@ -2922,7 +3027,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2930,7 +3035,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>0.96</v>
@@ -2948,7 +3053,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>0.94</v>
@@ -2969,7 +3074,7 @@
         <v>4000</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0.69</v>
@@ -2987,7 +3092,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>0.94</v>
@@ -3005,12 +3110,12 @@
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0.97</v>
@@ -3028,7 +3133,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>0.98</v>
@@ -3049,7 +3154,7 @@
         <v>20000</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0.95</v>
@@ -3067,7 +3172,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3085,13 +3190,13 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:7">
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3109,7 +3214,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -3128,7 +3233,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3136,19 +3246,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3176,13 +3286,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>0.83</v>
@@ -3200,7 +3310,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>0.67</v>
@@ -3218,7 +3328,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>0.88</v>
@@ -3236,7 +3346,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>0.85</v>
@@ -3263,7 +3373,7 @@
         <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>0.85</v>
@@ -3281,7 +3391,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>0.92</v>
@@ -3299,7 +3409,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>0.92</v>
@@ -3317,7 +3427,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -3344,7 +3454,7 @@
         <v>1000</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>0.95</v>
@@ -3362,7 +3472,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -3380,7 +3490,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>0.92</v>
@@ -3398,7 +3508,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>0.96</v>
@@ -3425,7 +3535,7 @@
         <v>10000</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
         <v>0.92</v>
@@ -3443,7 +3553,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3461,7 +3571,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3479,7 +3589,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -3497,13 +3607,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>5000</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
         <v>0.78</v>
@@ -3533,7 +3643,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>0.96</v>
@@ -3549,7 +3659,7 @@
         <v>0.9</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <v>0.56000000000000005</v>
@@ -3566,7 +3676,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>0.98</v>
@@ -3582,7 +3692,7 @@
         <v>0.82</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <v>0.56999999999999995</v>
@@ -3599,7 +3709,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -3615,7 +3725,7 @@
         <v>0.91</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25">
         <v>0.49</v>
@@ -3632,7 +3742,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="J26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26">
         <v>0.49</v>
@@ -3652,7 +3762,7 @@
         <v>500</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
         <v>0.76</v>
@@ -3671,7 +3781,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2">
         <v>0.89</v>
@@ -3690,7 +3800,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>0.94</v>
@@ -3720,7 +3830,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
         <v>0.94</v>
@@ -3736,7 +3846,7 @@
         <v>0.81</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <v>0.27</v>
@@ -3753,7 +3863,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <v>0.22</v>
@@ -3773,7 +3883,7 @@
         <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
         <v>0.61</v>
@@ -3789,7 +3899,7 @@
         <v>0.49</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <v>0.19</v>
@@ -3806,7 +3916,7 @@
     </row>
     <row r="33" spans="2:14">
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>0.65</v>
@@ -3822,7 +3932,7 @@
         <v>0.42</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K33">
         <v>0.19</v>
@@ -3839,7 +3949,7 @@
     </row>
     <row r="34" spans="2:14">
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>0.74</v>
@@ -3858,7 +3968,7 @@
     </row>
     <row r="35" spans="2:14">
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2">
         <v>0.69</v>
@@ -3880,7 +3990,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2">
         <v>0.53</v>
@@ -3899,7 +4009,7 @@
     </row>
     <row r="38" spans="2:14">
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>0.56999999999999995</v>
@@ -3918,7 +4028,7 @@
     </row>
     <row r="39" spans="2:14">
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>0.56000000000000005</v>
@@ -3937,7 +4047,7 @@
     </row>
     <row r="40" spans="2:14">
       <c r="C40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2">
         <v>0.53</v>
@@ -3957,7 +4067,290 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>500</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4020" windowWidth="25360" windowHeight="15280" activeTab="2"/>
+    <workbookView xWindow="1100" yWindow="5500" windowWidth="25360" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="alarm" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,25 +140,46 @@
     <t>0.78 (0.77, 0.79)</t>
   </si>
   <si>
-    <t>0.26 (0.25, 0.27)</t>
-  </si>
-  <si>
-    <t>0.72 (0.71, 0.73)</t>
-  </si>
-  <si>
     <t>0.90 (0.89, 0.91)</t>
   </si>
   <si>
     <t>0.66 (0.65, 0.67)</t>
   </si>
   <si>
-    <t>0.39 (0.38, 0.40)</t>
-  </si>
-  <si>
     <t>0.93 (0.92, 0.94)</t>
   </si>
   <si>
-    <t>0.84 (0.84, 0.86)</t>
+    <t>1 (1,1)</t>
+  </si>
+  <si>
+    <t>0.94 (0.93, 0.94)</t>
+  </si>
+  <si>
+    <t>0.06 (0.06, 0.07)</t>
+  </si>
+  <si>
+    <t>0.97 (0.96, 0.97)</t>
+  </si>
+  <si>
+    <t>1 (1, 1)</t>
+  </si>
+  <si>
+    <t>0.99 (0.99, 0.99)</t>
+  </si>
+  <si>
+    <t>0.01 (0.01, 0.02)</t>
+  </si>
+  <si>
+    <t>0.36 (0.35, 0.37)</t>
+  </si>
+  <si>
+    <t>0.76 (0.75, 0.77)</t>
+  </si>
+  <si>
+    <t>0.24 (0.22, 0.25)</t>
+  </si>
+  <si>
+    <t>0.85 (0.84, 0.86)</t>
   </si>
 </sst>
 </file>
@@ -4082,7 +4103,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4149,16 +4170,16 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4168,16 +4189,16 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4329,10 +4350,18 @@
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
@@ -4340,10 +4369,18 @@
       <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="5500" windowWidth="25360" windowHeight="15280" activeTab="2"/>
+    <workbookView xWindow="1300" yWindow="3120" windowWidth="25360" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="alarm" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>0.85 (0.84, 0.86)</t>
+  </si>
+  <si>
+    <t>0.99 (0.98, 0.99)</t>
+  </si>
+  <si>
+    <t>0.9 (0.89, 0.9)</t>
+  </si>
+  <si>
+    <t>0.1 (0.1, 0.11)</t>
+  </si>
+  <si>
+    <t>0.94 (0.94, 0.94)</t>
+  </si>
+  <si>
+    <t>0.03 (0.03, 0.04)</t>
+  </si>
+  <si>
+    <t>0.98 (0.98, 0.98)</t>
   </si>
 </sst>
 </file>
@@ -327,7 +345,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -701,11 +718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119764744"/>
-        <c:axId val="2118559576"/>
+        <c:axId val="2121525464"/>
+        <c:axId val="2121516536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119764744"/>
+        <c:axId val="2121525464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118559576"/>
+        <c:crossAx val="2121516536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -756,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118559576"/>
+        <c:axId val="2121516536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119764744"/>
+        <c:crossAx val="2121525464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -903,7 +919,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118513912"/>
-        <c:axId val="2118508376"/>
+        <c:axId val="2116585848"/>
+        <c:axId val="2119302408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118513912"/>
+        <c:axId val="2116585848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118508376"/>
+        <c:crossAx val="2119302408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1332,7 +1347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118508376"/>
+        <c:axId val="2119302408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118513912"/>
+        <c:crossAx val="2116585848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,7 +1412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2870,7 +2884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4103,7 +4117,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4295,10 +4309,18 @@
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -4306,10 +4328,18 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="3120" windowWidth="25360" windowHeight="15280" activeTab="2"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="alarm" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>0.98 (0.98, 0.98)</t>
+  </si>
+  <si>
+    <t>0.98 (0.98, 0.99)</t>
+  </si>
+  <si>
+    <t>0.91 (0.91, 0.92)</t>
+  </si>
+  <si>
+    <t>0.09 (0.08, 0.09)</t>
+  </si>
+  <si>
+    <t>0.95 (0.94, 0.95)</t>
+  </si>
+  <si>
+    <t>0.81 (0.80, 0.81)</t>
+  </si>
+  <si>
+    <t>0.2 (0.19, 0.2)</t>
+  </si>
+  <si>
+    <t>0.88 (0.87, 0.89)</t>
   </si>
 </sst>
 </file>
@@ -718,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121525464"/>
-        <c:axId val="2121516536"/>
+        <c:axId val="2122218456"/>
+        <c:axId val="2121341000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121525464"/>
+        <c:axId val="2122218456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121516536"/>
+        <c:crossAx val="2121341000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121516536"/>
+        <c:axId val="2121341000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121525464"/>
+        <c:crossAx val="2122218456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,11 +1313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116585848"/>
-        <c:axId val="2119302408"/>
+        <c:axId val="2118224664"/>
+        <c:axId val="2120027960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116585848"/>
+        <c:axId val="2118224664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119302408"/>
+        <c:crossAx val="2120027960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1347,7 +1368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119302408"/>
+        <c:axId val="2120027960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116585848"/>
+        <c:crossAx val="2118224664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2884,7 +2905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4117,7 +4138,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4254,10 +4275,18 @@
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -4265,10 +4294,18 @@
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhDProjects\RStudioProjects\mbDiscoveryR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="2"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="alarm" sheetId="1" r:id="rId1"/>
-    <sheet name="synthetic" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="synthetic" sheetId="3" r:id="rId1"/>
+    <sheet name="asia" sheetId="7" r:id="rId2"/>
+    <sheet name="insurance" sheetId="8" r:id="rId3"/>
+    <sheet name="alarm " sheetId="4" r:id="rId4"/>
+    <sheet name="Barley" sheetId="6" r:id="rId5"/>
+    <sheet name="synthetic2" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Barley!$A$1:$E$8</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="206">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPC-MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MMLCPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,9 +108,6 @@
     <t>Alarm</t>
   </si>
   <si>
-    <t>Alarm (uniform)</t>
-  </si>
-  <si>
     <t>BN</t>
   </si>
   <si>
@@ -137,106 +141,724 @@
     <t>MMLCPT (sym)</t>
   </si>
   <si>
-    <t>0.78 (0.77, 0.79)</t>
-  </si>
-  <si>
-    <t>0.90 (0.89, 0.91)</t>
-  </si>
-  <si>
-    <t>0.66 (0.65, 0.67)</t>
+    <t>0.94 (0.93, 0.94)</t>
+  </si>
+  <si>
+    <t>0.06 (0.06, 0.07)</t>
+  </si>
+  <si>
+    <t>0.97 (0.96, 0.97)</t>
+  </si>
+  <si>
+    <t>1 (1, 1)</t>
+  </si>
+  <si>
+    <t>0.99 (0.99, 0.99)</t>
+  </si>
+  <si>
+    <t>0.01 (0.01, 0.02)</t>
+  </si>
+  <si>
+    <t>0.96 (0.95, 0.97)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 (0.99, 0.99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 (0.03, 0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 (0.98, 0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 (0.61, 0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 (0.76, 0.87)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 (0.16, 0.19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 (0.66, 0.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (1, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 (0.97, 0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 (0.63, 0.69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 (0.41, 0.47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 (0.68, 0.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 (0.46, 0.52)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 (0.6, 0.67)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 (0.49, 0.55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 (0.62, 0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 (0.5, 0.57)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 (0.43, 0.51)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 (0.22, 0.26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 (0.74, 0.83)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 (0.27, 0.32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 (0.48, 0.56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 (0.25, 0.30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 (0.88, 0.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 (0.31, 0.37)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 (0.72, 0.78)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 (0.49, 0.54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59 (0.55, 0.63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 (0.55, 0.61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 (0.68, 0.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 (0.4, 0.46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 (0.48, 0.54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 (0.78, 0.83)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 (0.56, 0.61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 (0.62, 0.67)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 (0.64, 0.69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 (0.41, 0.48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 (0.67, 0.72)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 (0.91, 0.95)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 (0.73, 0.78)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 (0.25, 0.31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 (0.89, 0.94)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 (0.65, 0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 (0.29, 0.34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 (0.91, 0.94)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 (0.71, 0.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 (0.26, 0.33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 (0.77, 0.82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 (0.78, 0.83)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 (0.2, 0.26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 (0.82, 0.86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 (0.96, 0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 (0.88, 0.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 (0.11, 0.14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 (0.9, 0.93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 (0.16, 0.21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 (0.86, 0.89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 (0.97, 0.99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 (0.84, 0.87)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 (0.14, 0.17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.89, 0.91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.88, 0.91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 (0.1, 0.13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.93 (0.92, 0.94)</t>
-  </si>
-  <si>
-    <t>1 (1,1)</t>
-  </si>
-  <si>
-    <t>0.94 (0.93, 0.94)</t>
-  </si>
-  <si>
-    <t>0.06 (0.06, 0.07)</t>
-  </si>
-  <si>
-    <t>0.97 (0.96, 0.97)</t>
-  </si>
-  <si>
-    <t>1 (1, 1)</t>
-  </si>
-  <si>
-    <t>0.99 (0.99, 0.99)</t>
-  </si>
-  <si>
-    <t>0.01 (0.01, 0.02)</t>
-  </si>
-  <si>
-    <t>0.36 (0.35, 0.37)</t>
-  </si>
-  <si>
-    <t>0.76 (0.75, 0.77)</t>
-  </si>
-  <si>
-    <t>0.24 (0.22, 0.25)</t>
-  </si>
-  <si>
-    <t>0.85 (0.84, 0.86)</t>
-  </si>
-  <si>
-    <t>0.99 (0.98, 0.99)</t>
-  </si>
-  <si>
-    <t>0.9 (0.89, 0.9)</t>
-  </si>
-  <si>
-    <t>0.1 (0.1, 0.11)</t>
-  </si>
-  <si>
-    <t>0.94 (0.94, 0.94)</t>
-  </si>
-  <si>
-    <t>0.03 (0.03, 0.04)</t>
-  </si>
-  <si>
-    <t>0.98 (0.98, 0.98)</t>
-  </si>
-  <si>
-    <t>0.98 (0.98, 0.99)</t>
-  </si>
-  <si>
-    <t>0.91 (0.91, 0.92)</t>
-  </si>
-  <si>
-    <t>0.09 (0.08, 0.09)</t>
-  </si>
-  <si>
-    <t>0.95 (0.94, 0.95)</t>
-  </si>
-  <si>
-    <t>0.81 (0.80, 0.81)</t>
-  </si>
-  <si>
-    <t>0.2 (0.19, 0.2)</t>
-  </si>
-  <si>
-    <t>0.88 (0.87, 0.89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,20 +867,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +889,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +897,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +906,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,17 +954,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +991,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -366,6 +1003,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -391,7 +1029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -446,16 +1084,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,7 +1105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82</c:v>
@@ -476,7 +1114,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,16 +1166,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,7 +1187,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84</c:v>
@@ -558,7 +1196,7 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,16 +1248,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,16 +1330,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,11 +1377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122218456"/>
-        <c:axId val="2121341000"/>
+        <c:axId val="223841264"/>
+        <c:axId val="223841824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122218456"/>
+        <c:axId val="223841264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,10 +1421,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121341000"/>
+        <c:crossAx val="223841824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121341000"/>
+        <c:axId val="223841824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,10 +1480,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122218456"/>
+        <c:crossAx val="223841264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,6 +1497,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,7 +1523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -914,7 +1553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -928,7 +1567,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -940,6 +1579,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -965,7 +1605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1020,16 +1660,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1687,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72</c:v>
@@ -1102,16 +1742,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,16 +1824,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,16 +1906,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1933,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73</c:v>
@@ -1313,11 +1953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118224664"/>
-        <c:axId val="2120027960"/>
+        <c:axId val="223846304"/>
+        <c:axId val="223846864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118224664"/>
+        <c:axId val="223846304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,10 +1997,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120027960"/>
+        <c:crossAx val="223846864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120027960"/>
+        <c:axId val="223846864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,10 +2056,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118224664"/>
+        <c:crossAx val="223846304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,6 +2073,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1458,7 +2099,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1488,7 +2129,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2905,7 +3546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2913,21 +3554,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2955,341 +3596,789 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0.72</v>
-      </c>
-      <c r="E2">
-        <v>0.68</v>
-      </c>
-      <c r="F2">
-        <v>0.51</v>
-      </c>
-      <c r="G2">
-        <f>(2*D2*E2)/(D2+E2)</f>
-        <v>0.69942857142857151</v>
+      <c r="D2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ROUND((2*D2*E2)/(D2+E2),2)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>0.87</v>
-      </c>
-      <c r="E3">
-        <v>0.64</v>
-      </c>
-      <c r="F3">
-        <v>0.41</v>
-      </c>
-      <c r="G3">
-        <f>(2*D3*E3)/(D3+E3)</f>
-        <v>0.73748344370860919</v>
+      <c r="D3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="G3" s="2">
+        <f>ROUND((2*D3*E3)/(D3+E3),2)</f>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G20" si="0">ROUND((2*D4*E4)/(D4+E4),2)</f>
+        <v>0.52</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0.86</v>
-      </c>
-      <c r="E5">
-        <v>0.65</v>
-      </c>
-      <c r="F5">
-        <v>0.41</v>
-      </c>
-      <c r="G5">
-        <f>(2*D5*E5)/(D5+E5)</f>
-        <v>0.74039735099337756</v>
+      <c r="D5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.78</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="2">
         <v>0.3</v>
       </c>
-      <c r="G6" s="1">
-        <f>(2*D6*E6)/(D6+E6)</f>
-        <v>0.82698795180722884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8">
-        <v>1000</v>
-      </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E8" s="2">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="F8" s="2">
         <v>0.37</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G12" si="0">(2*D8*E8)/(D8+E8)</f>
-        <v>0.78886075949367085</v>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E9" s="2">
         <v>0.76</v>
       </c>
       <c r="F9" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="G9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.83644970414201192</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G15" si="1">ROUND((2*D12*E12)/(D12+E12),2)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.83576470588235285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D14" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
         <v>0.84</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88719101123595512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14">
-        <v>4000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>0.69</v>
-      </c>
-      <c r="E14">
-        <v>0.89</v>
-      </c>
-      <c r="F14">
-        <v>0.37</v>
-      </c>
-      <c r="G14">
-        <f>(2*D14*E14)/(D14+E14)</f>
-        <v>0.7773417721518987</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22:G25" si="2">ROUND((2*D22*E22)/(D22+E22),2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+      <c r="M22" s="2">
+        <v>500</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L23">
+        <v>0.82</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L24">
+        <v>0.84</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>0.49</v>
+      </c>
+      <c r="L25">
+        <v>0.78</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26">
+        <v>0.49</v>
+      </c>
+      <c r="L26">
+        <v>0.68</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ref="G27:G30" si="3">ROUND((2*D27*E27)/(D27+E27),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.94</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E29" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>200</v>
+      </c>
+      <c r="M29" s="2">
+        <v>500</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>0.27</v>
+      </c>
+      <c r="L30">
+        <v>0.45</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>0.22</v>
+      </c>
+      <c r="L31">
+        <v>0.39</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:G35" si="4">ROUND((2*D32*E32)/(D32+E32),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>0.19</v>
+      </c>
+      <c r="L32">
+        <v>0.33</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="N32" s="2">
         <v>0.83</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="2">
-        <f>(2*D15*E15)/(D15+E15)</f>
-        <v>0.88158192090395471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" t="s">
+    </row>
+    <row r="33" spans="2:14">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>0.19</v>
+      </c>
+      <c r="L33">
+        <v>0.42</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="C17" t="s">
+      <c r="D34" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>0.97</v>
-      </c>
-      <c r="E17">
+      <c r="D35" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.59</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ref="G37:G40" si="5">ROUND((2*D37*E37)/(D37+E37),2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.83</v>
       </c>
-      <c r="F17">
-        <v>0.19</v>
-      </c>
-      <c r="G17">
-        <f>(2*D17*E17)/(D17+E17)</f>
-        <v>0.89455555555555555</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="G18" s="1">
-        <f>(2*D18*E18)/(D18+E18)</f>
-        <v>0.93829787234042561</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
-        <v>20000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>0.95</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G20">
-        <f>(2*D20*E20)/(D20+E20)</f>
-        <v>0.93989361702127661</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.94</v>
-      </c>
-      <c r="F21">
-        <v>0.06</v>
-      </c>
-      <c r="G21" s="2">
-        <f>(2*D21*E21)/(D21+E21)</f>
-        <v>0.96907216494845361</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0.92</v>
-      </c>
-      <c r="F23">
-        <v>0.08</v>
-      </c>
-      <c r="G23">
-        <f>(2*D23*E23)/(D23+E23)</f>
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G24" s="1">
-        <f>(2*D24*E24)/(D24+E24)</f>
-        <v>0.98989898989898994</v>
-      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44</v>
+      </c>
+      <c r="M40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3300,831 +4389,1325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>200</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>800</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="G2" s="2">
-        <f>ROUND((2*D2*E2)/(D2+E2),2)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="G3" s="2">
-        <f>ROUND((2*D3*E3)/(D3+E3),2)</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G20" si="0">ROUND((2*D4*E4)/(D4+E4),2)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12:G15" si="1">ROUND((2*D12*E12)/(D12+E12),2)</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" ref="G22:G25" si="2">ROUND((2*D22*E22)/(D22+E22),2)</f>
-        <v>0.81</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>200</v>
-      </c>
-      <c r="M22" s="2">
-        <v>500</v>
-      </c>
-      <c r="N22" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L23">
-        <v>0.82</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L24">
-        <v>0.84</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25">
-        <v>0.49</v>
-      </c>
-      <c r="L25">
-        <v>0.78</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26">
-        <v>0.49</v>
-      </c>
-      <c r="L26">
-        <v>0.68</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="B27">
-        <v>500</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" ref="G27:G30" si="3">ROUND((2*D27*E27)/(D27+E27),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62</v>
-      </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>0.71</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>200</v>
-      </c>
-      <c r="M29" s="2">
-        <v>500</v>
-      </c>
-      <c r="N29" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="3"/>
-        <v>0.81</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>0.27</v>
-      </c>
-      <c r="L30">
-        <v>0.45</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>0.22</v>
-      </c>
-      <c r="L31">
-        <v>0.39</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="B32">
-        <v>200</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" ref="G32:G35" si="4">ROUND((2*D32*E32)/(D32+E32),2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32">
-        <v>0.19</v>
-      </c>
-      <c r="L32">
-        <v>0.33</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33">
-        <v>0.19</v>
-      </c>
-      <c r="L33">
-        <v>0.42</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="4"/>
-        <v>0.54</v>
-      </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="4"/>
-        <v>0.59</v>
-      </c>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" ref="G37:G40" si="5">ROUND((2*D37*E37)/(D37+E37),2)</f>
-        <v>0.35</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="5"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="5"/>
-        <v>0.39</v>
-      </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="5"/>
-        <v>0.44</v>
-      </c>
-      <c r="M40" s="2"/>
+      <c r="F20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="e">
+        <f>AVERAGE(G2:G101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M1" t="e">
+        <f t="shared" ref="M1:O1" si="0">AVERAGE(H2:H101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" t="e">
+        <f>1.96*_xlfn.STDEV.S(G2:G101)/SQRT(100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" t="e">
+        <f t="shared" ref="M2:O2" si="1">1.96*_xlfn.STDEV.S(H2:H101)/SQRT(100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>400</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <f>1600*4</f>
+        <v>6400</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>500</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4133,54 +5716,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4191,7 +5778,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4202,56 +5789,40 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4262,7 +5833,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4273,56 +5844,40 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
-        <v>8000</v>
+        <v>2400</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4333,7 +5888,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4344,39 +5899,23 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
@@ -4390,23 +5929,25 @@
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <v>16000</v>
+        <f>2400*4</f>
+        <v>9600</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>25</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4415,46 +5956,288 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
         <v>30</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="N1">
+        <v>90</v>
+      </c>
+      <c r="O1">
+        <v>270</v>
+      </c>
+      <c r="P1">
+        <f>270*2</f>
+        <v>540</v>
+      </c>
+      <c r="Q1">
+        <f>270*3</f>
+        <v>810</v>
+      </c>
+      <c r="R1">
+        <f>270*4</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,19 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="4"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
     <sheet name="asia" sheetId="7" r:id="rId2"/>
     <sheet name="insurance" sheetId="8" r:id="rId3"/>
     <sheet name="alarm " sheetId="4" r:id="rId4"/>
-    <sheet name="Barley" sheetId="6" r:id="rId5"/>
+    <sheet name="hailfinder" sheetId="9" r:id="rId5"/>
     <sheet name="synthetic2" sheetId="5" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Barley!$A$1:$E$8</definedName>
-  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,46 +164,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.99 (0.99, 0.99)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.03 (0.03, 0.04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 (0.98, 0.98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insurance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.66 (0.61, 0.7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 (0.76, 0.87)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.18 (0.16, 0.19)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 (0.66, 0.76)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 (1, 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.98 (0.97, 0.98)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Asia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.79 (0.74, 0.83)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3 (0.27, 0.32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.24 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.75 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.78 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,14 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Barley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>running R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.9 $\pm$ 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +785,158 @@
   </si>
   <si>
     <t>0.94 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hailfinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa 5 ar 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6 0.01 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 0.01 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,12 +1013,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -944,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,7 +1069,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1109,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1377,11 +1482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223841264"/>
-        <c:axId val="223841824"/>
+        <c:axId val="231256240"/>
+        <c:axId val="87310000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223841264"/>
+        <c:axId val="231256240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223841824"/>
+        <c:crossAx val="87310000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1432,7 +1537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223841824"/>
+        <c:axId val="87310000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223841264"/>
+        <c:crossAx val="231256240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,7 +1602,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1579,7 +1683,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1953,11 +2056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223846304"/>
-        <c:axId val="223846864"/>
+        <c:axId val="234183744"/>
+        <c:axId val="234184304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223846304"/>
+        <c:axId val="234183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223846864"/>
+        <c:crossAx val="234184304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223846864"/>
+        <c:axId val="234184304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223846304"/>
+        <c:crossAx val="234183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2073,7 +2176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4392,7 +4494,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4428,7 +4530,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -4437,16 +4539,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4456,16 +4558,16 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4475,16 +4577,16 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4494,16 +4596,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4524,16 +4626,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4543,16 +4645,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4562,16 +4664,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4581,16 +4683,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4611,16 +4713,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4630,16 +4732,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4649,16 +4751,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4668,16 +4770,16 @@
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4698,16 +4800,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4720,13 +4822,13 @@
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4736,16 +4838,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4755,16 +4857,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4820,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,7 +4936,7 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -4856,29 +4958,10 @@
       <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" t="e">
-        <f>AVERAGE(G2:G101)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M1" t="e">
-        <f t="shared" ref="M1:O1" si="0">AVERAGE(H2:H101)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -4887,92 +4970,76 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" t="e">
-        <f>1.96*_xlfn.STDEV.S(G2:G101)/SQRT(100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
-        <f t="shared" ref="M2:O2" si="1">1.96*_xlfn.STDEV.S(H2:H101)/SQRT(100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4981,7 +5048,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>400</v>
@@ -4990,76 +5057,76 @@
         <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5068,7 +5135,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1600</v>
@@ -5077,76 +5144,76 @@
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5165,16 +5232,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5184,16 +5251,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5203,16 +5270,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5222,16 +5289,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5312,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -5291,16 +5358,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5310,16 +5377,16 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5329,16 +5396,16 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5348,16 +5415,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5378,16 +5445,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5397,16 +5464,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5416,16 +5483,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5435,16 +5502,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5465,16 +5532,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5484,16 +5551,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5503,16 +5570,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5522,16 +5589,16 @@
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5552,16 +5619,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5571,16 +5638,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5590,16 +5657,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5609,16 +5676,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5638,16 +5705,16 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5656,16 +5723,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5674,7 +5741,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>29</v>
@@ -5720,20 +5787,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5761,18 +5824,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
@@ -5780,10 +5843,10 @@
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
@@ -5791,10 +5854,18 @@
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
@@ -5802,32 +5873,40 @@
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
@@ -5835,10 +5914,10 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -5846,10 +5925,10 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -5857,32 +5936,32 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
@@ -5890,10 +5969,10 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
@@ -5902,9 +5981,9 @@
         <v>27</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -5912,45 +5991,44 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <f>2400*4</f>
-        <v>9600</v>
+        <f>3200*4</f>
+        <v>12800</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
@@ -5958,18 +6036,10 @@
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.08</v>
-      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
@@ -5977,39 +6047,41 @@
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.26</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.09</v>
-      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6035,79 +6107,148 @@
         <v>36</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O1">
-        <v>270</v>
-      </c>
-      <c r="P1">
-        <f>270*2</f>
-        <v>540</v>
-      </c>
-      <c r="Q1">
-        <f>270*3</f>
-        <v>810</v>
-      </c>
-      <c r="R1">
+        <v>200</v>
+      </c>
+      <c r="P1" s="8">
         <f>270*4</f>
         <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>10</v>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>208</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="D2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="D3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="D4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
+      <c r="O4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="D5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>500</v>
       </c>
@@ -6118,8 +6259,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="P7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -6127,8 +6271,26 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -6136,8 +6298,11 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="P9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -6145,14 +6310,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="P10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>1000</v>
       </c>
@@ -6164,7 +6332,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -6173,7 +6341,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +6350,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -6191,7 +6359,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6239,5 +6407,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="5"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="insurance" sheetId="8" r:id="rId3"/>
     <sheet name="alarm " sheetId="4" r:id="rId4"/>
     <sheet name="hailfinder" sheetId="9" r:id="rId5"/>
-    <sheet name="synthetic2" sheetId="5" r:id="rId6"/>
+    <sheet name="50.5.6.1" sheetId="5" r:id="rId6"/>
+    <sheet name="60.5.6.1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="317">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,15 +853,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.64 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.22 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 0.02</t>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm (non-uniform)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -868,63 +1065,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.89 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.28 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.32 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6 0.01 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 0.01 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.27 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.66 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.42 0.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.99 0</t>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 0.06 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,11 +1128,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.03 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25 0.02</t>
+    <t>0.77 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.80 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,6 +1417,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,11 +1832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231256240"/>
-        <c:axId val="87310000"/>
+        <c:axId val="222361056"/>
+        <c:axId val="222360496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231256240"/>
+        <c:axId val="222361056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87310000"/>
+        <c:crossAx val="222360496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87310000"/>
+        <c:axId val="222360496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1938,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231256240"/>
+        <c:crossAx val="222361056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2056,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="234183744"/>
-        <c:axId val="234184304"/>
+        <c:axId val="223125616"/>
+        <c:axId val="223126176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234183744"/>
+        <c:axId val="223125616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234184304"/>
+        <c:crossAx val="223126176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234184304"/>
+        <c:axId val="223126176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234183744"/>
+        <c:crossAx val="223125616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3659,7 +4009,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4494,7 +4844,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4564,7 +4914,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>50</v>
@@ -5309,10 +5659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -5320,11 +5670,18 @@
     <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="4"/>
+    <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4"/>
+    <col min="9" max="9" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -5346,8 +5703,29 @@
       <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5369,8 +5747,29 @@
       <c r="G2" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="3">
+        <v>100</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -5388,8 +5787,25 @@
       <c r="G3" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -5407,8 +5823,25 @@
       <c r="G4" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -5426,8 +5859,25 @@
       <c r="G5" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5435,8 +5885,15 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>500</v>
@@ -5456,8 +5913,19 @@
       <c r="G7" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>500</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -5475,8 +5943,17 @@
       <c r="G8" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -5494,8 +5971,17 @@
       <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -5513,8 +5999,17 @@
       <c r="G10" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5522,8 +6017,15 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>2000</v>
@@ -5543,8 +6045,19 @@
       <c r="G12" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -5562,8 +6075,17 @@
       <c r="G13" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -5581,8 +6103,17 @@
       <c r="G14" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -5600,8 +6131,17 @@
       <c r="G15" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5609,8 +6149,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>8000</v>
@@ -5625,13 +6172,32 @@
         <v>130</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -5649,8 +6215,25 @@
       <c r="G18" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -5668,8 +6251,25 @@
       <c r="G19" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -5687,8 +6287,25 @@
       <c r="G20" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5696,8 +6313,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22" s="3">
         <v>16000</v>
       </c>
@@ -5705,37 +6329,49 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -5752,8 +6388,14 @@
       <c r="G24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -5770,6 +6412,12 @@
       <c r="G25" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5787,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5832,10 +6480,18 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
@@ -5843,10 +6499,18 @@
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
@@ -5903,10 +6567,18 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
@@ -5914,10 +6586,18 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
@@ -5925,10 +6605,18 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
@@ -5936,10 +6624,18 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
@@ -5958,10 +6654,18 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
@@ -5969,10 +6673,18 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
@@ -5980,10 +6692,18 @@
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -5991,10 +6711,18 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
@@ -6036,10 +6764,18 @@
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
@@ -6047,10 +6783,18 @@
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6063,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6072,8 +6816,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
@@ -6128,23 +6871,24 @@
         <v>208</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="K2" t="s">
         <v>202</v>
       </c>
@@ -6166,17 +6910,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="K3" t="s">
         <v>203</v>
       </c>
@@ -6197,18 +6942,19 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>209</v>
+      <c r="D4" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="K4" t="s">
         <v>204</v>
       </c>
@@ -6229,36 +6975,47 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:16">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="P7" t="s">
         <v>206</v>
       </c>
@@ -6267,10 +7024,19 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="J8" t="s">
         <v>207</v>
       </c>
@@ -6294,10 +7060,19 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="P9">
         <v>200</v>
       </c>
@@ -6306,10 +7081,19 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="P10">
         <v>1000</v>
       </c>
@@ -6319,10 +7103,11 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:16">
       <c r="B12">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -6331,15 +7116,17 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:16">
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:16">
       <c r="C14" t="s">
@@ -6349,6 +7136,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:16">
       <c r="C15" t="s">
@@ -6358,12 +7146,241 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:16">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
@@ -6373,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
@@ -6381,16 +7398,16 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7">
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6399,10 +7416,10 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="4"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="362">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <t>0.01 (0.01, 0.02)</t>
   </si>
   <si>
-    <t>0.96 (0.95, 0.97)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nNodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.71 (0.68, 0.75)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.43 (0.4, 0.46)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.32 (0.29, 0.34)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.93 (0.91, 0.94)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,14 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.19 (0.16, 0.21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 (0.86, 0.89)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.98 (0.97, 0.99)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,67 +725,658 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.84 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hailfinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.83 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa 5 ar 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm (non-uniform)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 0.06 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99 $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.80 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.9 $\pm$ 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.84 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hailfinder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.54 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.62 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.46 $\pm$ 0.01</t>
+    <t>0.10 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 \pm 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 \pm 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 (0.68, 0.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,135 +1384,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.58 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.64 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nNodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nInstances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pa 5 ar 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-5-6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.66 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.42 0.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.99 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.03 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60-5-6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.32 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.19 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.11 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 $\pm$ 0.01</t>
+    <t>0.86 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -949,338 +1408,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.16 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.05 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.46 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.06 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.55 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.02 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.21 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.51 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.19 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.01 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.23 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm (non-uniform)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.18 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.23 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.21 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.78 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.26 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74 0.04</t>
-  </si>
-  <si>
-    <t>0.74 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 0.06 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.97 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.65 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.38 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.73 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.80 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.20 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.86 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.10 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.58 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.44 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.43 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.51 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.62 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.55 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.72 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.96 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.37 0.01</t>
+    <t>0.9 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14  $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97  $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,11 +2012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222361056"/>
-        <c:axId val="222360496"/>
+        <c:axId val="223851552"/>
+        <c:axId val="223852112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222361056"/>
+        <c:axId val="223851552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +2059,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222360496"/>
+        <c:crossAx val="223852112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1887,7 +2067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222360496"/>
+        <c:axId val="223852112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +2118,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222361056"/>
+        <c:crossAx val="223851552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,11 +2586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223125616"/>
-        <c:axId val="223126176"/>
+        <c:axId val="223684048"/>
+        <c:axId val="223684608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223125616"/>
+        <c:axId val="223684048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223126176"/>
+        <c:crossAx val="223684608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,7 +2641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223126176"/>
+        <c:axId val="223684608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223125616"/>
+        <c:crossAx val="223684048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4841,10 +5021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4880,7 +5060,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -4889,277 +5069,285 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>313</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>200</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>307</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>800</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>317</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3">
+        <v>800</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>3200</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>327</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5169,67 +5357,77 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
@@ -5238,31 +5436,165 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5272,10 +5604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5311,7 +5643,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -5320,278 +5652,284 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>400</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>400</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>1600</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>171</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <f>1600*4</f>
-        <v>6400</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5601,59 +5939,205 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <f>1600*4</f>
+        <v>6400</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5736,19 +6220,19 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J2" s="3">
         <v>100</v>
@@ -5757,16 +6241,16 @@
         <v>25</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5776,16 +6260,16 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -5793,16 +6277,16 @@
         <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5812,16 +6296,16 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -5829,16 +6313,16 @@
         <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5848,16 +6332,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -5865,16 +6349,16 @@
         <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5902,16 +6386,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
@@ -5932,16 +6416,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -5960,16 +6444,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5988,16 +6472,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6034,16 +6518,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
@@ -6064,16 +6548,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -6092,16 +6576,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -6120,16 +6604,16 @@
         <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -6166,16 +6650,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
@@ -6185,16 +6669,16 @@
         <v>25</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -6204,16 +6688,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -6221,16 +6705,16 @@
         <v>26</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -6240,16 +6724,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -6257,16 +6741,16 @@
         <v>27</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -6276,16 +6760,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -6293,16 +6777,16 @@
         <v>28</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -6329,16 +6813,16 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -6353,16 +6837,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -6377,7 +6861,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>29</v>
@@ -6435,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6472,7 +6956,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3">
         <v>200</v>
@@ -6481,16 +6965,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6500,16 +6984,16 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6519,16 +7003,16 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6538,16 +7022,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6568,16 +7052,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6587,16 +7071,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6606,16 +7090,16 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6625,16 +7109,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6655,16 +7139,16 @@
         <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6674,16 +7158,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6693,16 +7177,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6712,16 +7196,16 @@
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6753,10 +7237,18 @@
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
@@ -6765,16 +7257,16 @@
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6784,16 +7276,16 @@
         <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6847,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1">
         <v>50</v>
@@ -6868,7 +7360,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6877,20 +7369,20 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H2" s="2"/>
       <c r="K2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -6910,20 +7402,20 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -6943,20 +7435,20 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H4" s="2"/>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L4">
         <v>200</v>
@@ -6976,16 +7468,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7004,20 +7496,20 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H7" s="2"/>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7025,23 +7517,23 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L8">
         <v>50</v>
@@ -7061,16 +7553,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H9" s="2"/>
       <c r="P9">
@@ -7082,16 +7574,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H10" s="2"/>
       <c r="P10">
@@ -7246,7 +7738,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>100</v>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="2"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="424">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,11 +545,998 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.07 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hailfinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nInstances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa 5 ar 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.06 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm (non-uniform)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+  </si>
+  <si>
+    <t>0.74 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 0.06 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99 $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.80 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 \pm 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 \pm 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 (0.68, 0.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 \pm 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22 \pm 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10 \pm 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 \pm 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48  $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14  $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97  $\pm$ 0 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.88 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.07 0.01</t>
+    <t>0.40 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,67 +1544,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.65 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.99 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.63 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.37 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.49 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.53 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.97 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79  $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35  $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74  $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.44  $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.78 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.64 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.54 $\pm$ 0.01</t>
+    <t>0.95 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,7 +1584,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.32 $\pm$ 0.01</t>
+    <t>0.86 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05  $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,87 +1664,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.72 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.61 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.46 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.67 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.78 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.65 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.84 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.38 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.57 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.64 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.89 $\pm$ 0.01</t>
+    <t>0.75 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -721,406 +1676,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.26 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.84 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hailfinder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.54 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.62 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.46 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.58 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.64 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nNodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nInstances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pa 5 ar 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-5-6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.66 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.42 0.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.99 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.03 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60-5-6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.32 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.19 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.11 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.16 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.05 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.46 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.06 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.55 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.02 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.21 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.51 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.19 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.01 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.23 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm (non-uniform)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.18 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.23 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.21 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.78 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.26 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74 0.04</t>
-  </si>
-  <si>
-    <t>0.74 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 0.06 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.71 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.97 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.74 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.51 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.62 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.55 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.43 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.44 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.58 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 $\pm$ 0</t>
+    <t>0.4 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1128,339 +1704,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.96 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99 $\pm$ 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 $\pm$ 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.80 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.65 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.38 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.73 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.72 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.13 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.20 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.37 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.86 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.10 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAMB (sym)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMB (sym)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.53 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.89 \pm 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.37 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.47 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.98 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.72 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.43 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.69 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.51 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.77 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.58 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.53 \pm 0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.63 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.72 (0.68, 0.75)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.36 \pm 0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.81 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.22 \pm 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.96 \pm 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.84 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.19 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.93 \pm 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.10 \pm 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.94 \pm 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.48  $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.81 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.76 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.83 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.86 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.27 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.29 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 $\pm$ 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.96 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.79 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14  $\pm$ 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97  $\pm$ 0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.99  $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.04  $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.97  $\pm$ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.88 $\pm$ 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.29 $\pm$ 0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.81 $\pm$ 0.02</t>
+    <t>0.71 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,6 +1795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,7 +1825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,6 +1857,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,6 +1899,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2012,11 +2273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223851552"/>
-        <c:axId val="223852112"/>
+        <c:axId val="219307328"/>
+        <c:axId val="221670208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223851552"/>
+        <c:axId val="219307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223852112"/>
+        <c:crossAx val="221670208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223852112"/>
+        <c:axId val="221670208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223851552"/>
+        <c:crossAx val="219307328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2132,6 +2393,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2213,6 +2475,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2586,11 +2849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223684048"/>
-        <c:axId val="223684608"/>
+        <c:axId val="222283104"/>
+        <c:axId val="222283664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223684048"/>
+        <c:axId val="222283104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +2896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223684608"/>
+        <c:crossAx val="222283664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +2904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223684608"/>
+        <c:axId val="222283664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223684048"/>
+        <c:crossAx val="222283104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,6 +2969,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5024,7 +5288,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G23" activeCellId="3" sqref="F23 F27 G27 G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5085,19 +5349,19 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5112,8 +5376,8 @@
       <c r="E4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>201</v>
+      <c r="F4" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>49</v>
@@ -5123,19 +5387,19 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5144,16 +5408,16 @@
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5166,13 +5430,13 @@
       <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5210,19 +5474,19 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5232,13 +5496,13 @@
         <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>59</v>
@@ -5248,19 +5512,19 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5269,16 +5533,16 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5288,16 +5552,16 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5324,10 +5588,10 @@
       <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5335,19 +5599,19 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5363,7 +5627,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>54</v>
@@ -5373,7 +5637,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>69</v>
@@ -5382,7 +5646,7 @@
         <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>54</v>
@@ -5400,10 +5664,10 @@
       <c r="E20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5416,13 +5680,13 @@
       <c r="D21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5449,10 +5713,10 @@
       <c r="E23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5460,19 +5724,19 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5482,35 +5746,35 @@
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5525,10 +5789,10 @@
       <c r="E27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5606,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" activeCellId="1" sqref="F25 G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5652,35 +5916,35 @@
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5690,35 +5954,35 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5728,16 +5992,16 @@
         <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5747,16 +6011,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5777,35 +6041,35 @@
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5815,35 +6079,35 @@
         <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5853,16 +6117,16 @@
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5872,16 +6136,16 @@
         <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5901,35 +6165,35 @@
         <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5939,35 +6203,35 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>341</v>
+      <c r="G18" s="11" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5977,16 +6241,16 @@
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5996,16 +6260,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6027,35 +6291,35 @@
         <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6065,35 +6329,35 @@
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6103,16 +6367,16 @@
         <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6122,16 +6386,16 @@
         <v>28</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6143,10 +6407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -6219,20 +6483,20 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>123</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J2" s="3">
         <v>100</v>
@@ -6241,197 +6505,185 @@
         <v>25</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>361</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>242</v>
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>119</v>
+        <v>362</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>500</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>500</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -6439,26 +6691,30 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>500</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>96</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>500</v>
+      </c>
       <c r="K9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6469,73 +6725,77 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>115</v>
+        <v>361</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>2000</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>128</v>
+        <v>362</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -6545,24 +6805,24 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -6573,53 +6833,41 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -6627,15 +6875,31 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -6643,43 +6907,29 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>8000</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>361</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
@@ -6687,143 +6937,119 @@
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>134</v>
+      <c r="D18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>104</v>
+        <v>362</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>108</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>264</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="3">
-        <v>16000</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -6832,76 +7058,366 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="B23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>8000</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>208</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>379</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6917,10 +7433,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6956,7 +7472,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3">
         <v>200</v>
@@ -6965,271 +7481,286 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>270</v>
+        <v>361</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>800</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>273</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>293</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>800</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>275</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>276</v>
+        <v>361</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>3200</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>266</v>
+        <v>362</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>283</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <f>3200*4</f>
-        <v>12800</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3"/>
@@ -7238,54 +7769,183 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>357</v>
+        <v>282</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <f>3200*4</f>
+        <v>12800</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>306</v>
+      <c r="G28" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7297,10 +7957,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7360,7 +8020,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -7369,20 +8029,20 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H2" s="2"/>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -7402,20 +8062,20 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -7435,20 +8095,20 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="H4" s="2"/>
       <c r="K4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L4">
         <v>200</v>
@@ -7468,16 +8128,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7496,20 +8156,20 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H7" s="2"/>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7517,23 +8177,23 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L8">
         <v>50</v>
@@ -7553,16 +8213,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H9" s="2"/>
       <c r="P9">
@@ -7574,16 +8234,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="2"/>
       <c r="P10">
@@ -7599,45 +8259,77 @@
     </row>
     <row r="12" spans="1:16">
       <c r="B12">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:16">
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:16">
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:16">
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:16">
@@ -7649,46 +8341,124 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8">
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8">
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="H20" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7738,7 +8508,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2">
         <v>100</v>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" activeTab="5"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
-    <sheet name="asia" sheetId="7" r:id="rId2"/>
-    <sheet name="insurance" sheetId="8" r:id="rId3"/>
-    <sheet name="alarm " sheetId="4" r:id="rId4"/>
-    <sheet name="hailfinder" sheetId="9" r:id="rId5"/>
-    <sheet name="50.5.6.1" sheetId="5" r:id="rId6"/>
-    <sheet name="60.5.6.1" sheetId="10" r:id="rId7"/>
+    <sheet name="asia" sheetId="11" r:id="rId2"/>
+    <sheet name="asia (uni)" sheetId="7" r:id="rId3"/>
+    <sheet name="insurance (uni)" sheetId="8" r:id="rId4"/>
+    <sheet name="insurance" sheetId="13" r:id="rId5"/>
+    <sheet name="alarm (uni)" sheetId="4" r:id="rId6"/>
+    <sheet name="alarm" sheetId="12" r:id="rId7"/>
+    <sheet name="hailfinder (uni)" sheetId="9" r:id="rId8"/>
+    <sheet name="50.5.6.1" sheetId="5" r:id="rId9"/>
+    <sheet name="60.5.6.1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="732">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1709,6 +1712,1171 @@
   </si>
   <si>
     <t>0.47 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC-MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDMB+BDeu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 .0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC-MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 $\pm$ 0.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 $pm$ 0.03</t>
+  </si>
+  <si>
+    <t>0.58 $pm$ 0.03</t>
+  </si>
+  <si>
+    <t>0.6 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonTrue prior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True prior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 $\pm$ 0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.44 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.67 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.51 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.71 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.53 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.61 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.57 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.6 $pm$ 0.03</t>
+  </si>
+  <si>
+    <t>0.43 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.77 $pm$ 0.03</t>
+  </si>
+  <si>
+    <t>0.76 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.44 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.66 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.75 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.54 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.59 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.88 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.62 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.45 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.68 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.87 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.72 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.35 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.76 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.7 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.36 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.75 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.84 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.79 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.31 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.83 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.67 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.42 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.92 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.69 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.74 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.91 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.26 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.82 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.86 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.25 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.83 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.9 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.78 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.27 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.81 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.93 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.28 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.8 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.92 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.81 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.23 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.85 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.89 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.17 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.9 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.17 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.89 $pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.85 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.93 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.2 $pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.97 $pm$ 0</t>
+  </si>
+  <si>
+    <t>0.11 $pm$ 0</t>
+  </si>
+  <si>
+    <t>RPDMB+Bdeu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC-MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 $\pm$ 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.48 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAMB (sym)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 $\pm$ 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +2953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1801,6 +2969,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,7 +2999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,6 +3039,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1899,7 +3085,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2273,11 +3458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219307328"/>
-        <c:axId val="221670208"/>
+        <c:axId val="225704848"/>
+        <c:axId val="225705408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219307328"/>
+        <c:axId val="225704848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +3505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221670208"/>
+        <c:crossAx val="225705408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2328,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221670208"/>
+        <c:axId val="225705408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +3564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219307328"/>
+        <c:crossAx val="225704848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2393,7 +3578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2475,7 +3659,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2849,11 +4032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222283104"/>
-        <c:axId val="222283664"/>
+        <c:axId val="226113536"/>
+        <c:axId val="226114096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222283104"/>
+        <c:axId val="226113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +4079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222283664"/>
+        <c:crossAx val="226114096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2904,7 +4087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222283664"/>
+        <c:axId val="226114096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,7 +4138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222283104"/>
+        <c:crossAx val="226113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,7 +4152,792 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" altLang="zh-CN"/>
+              <a:t>precision</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>asia!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonTrue prior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>asia!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>asia!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True prior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>asia!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="226117456"/>
+        <c:axId val="226118016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="226117456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226118016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226118016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226117456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" altLang="zh-CN"/>
+              <a:t>recall</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>asia!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nonTrue prior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>asia!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>asia!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True prior</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>asia!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="226423184"/>
+        <c:axId val="226423744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="226423184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226423744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226423744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226423184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3077,6 +5045,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4122,6 +6170,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4170,6 +7224,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5283,12 +8402,1078 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.66</v>
+      </c>
+      <c r="K2">
+        <v>0.32</v>
+      </c>
+      <c r="L2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0.72</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.53</v>
+      </c>
+      <c r="L3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4">
+        <v>800</v>
+      </c>
+      <c r="I4">
+        <v>0.86</v>
+      </c>
+      <c r="J4">
+        <v>0.93</v>
+      </c>
+      <c r="K4">
+        <v>0.72</v>
+      </c>
+      <c r="L4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5">
+        <v>3200</v>
+      </c>
+      <c r="I5">
+        <v>0.89</v>
+      </c>
+      <c r="J5">
+        <v>0.98</v>
+      </c>
+      <c r="K5">
+        <v>0.73</v>
+      </c>
+      <c r="L5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>800</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" t="s">
+        <v>514</v>
+      </c>
+      <c r="F21" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" t="s">
+        <v>516</v>
+      </c>
+      <c r="G22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" t="s">
+        <v>503</v>
+      </c>
+      <c r="G24" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E25" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" t="s">
+        <v>518</v>
+      </c>
+      <c r="G25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" t="s">
+        <v>529</v>
+      </c>
+      <c r="F27" t="s">
+        <v>537</v>
+      </c>
+      <c r="G27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" t="s">
+        <v>526</v>
+      </c>
+      <c r="E28" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" t="s">
+        <v>536</v>
+      </c>
+      <c r="G28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E29" t="s">
+        <v>531</v>
+      </c>
+      <c r="F29" t="s">
+        <v>535</v>
+      </c>
+      <c r="G29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" t="s">
+        <v>527</v>
+      </c>
+      <c r="E30" t="s">
+        <v>531</v>
+      </c>
+      <c r="F30" t="s">
+        <v>535</v>
+      </c>
+      <c r="G30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>528</v>
+      </c>
+      <c r="E31" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" t="s">
+        <v>534</v>
+      </c>
+      <c r="G31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" t="s">
+        <v>532</v>
+      </c>
+      <c r="F32" t="s">
+        <v>533</v>
+      </c>
+      <c r="G32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>549</v>
+      </c>
+      <c r="E33" t="s">
+        <v>550</v>
+      </c>
+      <c r="F33" t="s">
+        <v>554</v>
+      </c>
+      <c r="G33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>528</v>
+      </c>
+      <c r="E34" t="s">
+        <v>542</v>
+      </c>
+      <c r="F34" t="s">
+        <v>553</v>
+      </c>
+      <c r="G34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" t="s">
+        <v>551</v>
+      </c>
+      <c r="F35" t="s">
+        <v>552</v>
+      </c>
+      <c r="G35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E36" t="s">
+        <v>551</v>
+      </c>
+      <c r="F36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>548</v>
+      </c>
+      <c r="E38" t="s">
+        <v>547</v>
+      </c>
+      <c r="F38" t="s">
+        <v>545</v>
+      </c>
+      <c r="G38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>548</v>
+      </c>
+      <c r="E39" t="s">
+        <v>542</v>
+      </c>
+      <c r="F39" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" activeCellId="3" sqref="F23 F27 G27 G23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5866,12 +10051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" activeCellId="1" sqref="F25 G25"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6405,12 +10590,596 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>500</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -6876,34 +11645,30 @@
     <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>126</v>
+        <v>430</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>127</v>
+        <v>432</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3"/>
@@ -6912,24 +11677,24 @@
         <v>361</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
@@ -6938,26 +11703,24 @@
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>367</v>
+        <v>427</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3"/>
@@ -6966,76 +11729,72 @@
         <v>362</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>100</v>
+        <v>424</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.88</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>111</v>
+        <v>425</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.86</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -7044,138 +11803,120 @@
     <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3"/>
-      <c r="B23" s="3">
-        <v>8000</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>124</v>
+        <v>440</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>125</v>
+        <v>441</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>115</v>
+        <v>443</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>2000</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>133</v>
+        <v>368</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>2000</v>
+      </c>
       <c r="K25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>253</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -7189,133 +11930,121 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>251</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>263</v>
-      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="3">
-        <v>16000</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -7324,100 +12053,540 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="3"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>8000</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="2:15">
+        <v>125</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="K34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7431,7 +12600,1164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>576</v>
+      </c>
+      <c r="D9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>500</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" t="s">
+        <v>587</v>
+      </c>
+      <c r="E10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>593</v>
+      </c>
+      <c r="D12" t="s">
+        <v>594</v>
+      </c>
+      <c r="E12" t="s">
+        <v>595</v>
+      </c>
+      <c r="F12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" t="s">
+        <v>594</v>
+      </c>
+      <c r="E13" t="s">
+        <v>595</v>
+      </c>
+      <c r="F13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" t="s">
+        <v>628</v>
+      </c>
+      <c r="D15" t="s">
+        <v>629</v>
+      </c>
+      <c r="E15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" t="s">
+        <v>580</v>
+      </c>
+      <c r="E16" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" t="s">
+        <v>606</v>
+      </c>
+      <c r="E18" t="s">
+        <v>607</v>
+      </c>
+      <c r="F18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D19" t="s">
+        <v>602</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D20" t="s">
+        <v>589</v>
+      </c>
+      <c r="E20" t="s">
+        <v>610</v>
+      </c>
+      <c r="F20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E21" t="s">
+        <v>610</v>
+      </c>
+      <c r="F21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E24" t="s">
+        <v>588</v>
+      </c>
+      <c r="F24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E26" t="s">
+        <v>619</v>
+      </c>
+      <c r="F26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D27" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>623</v>
+      </c>
+      <c r="F27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>624</v>
+      </c>
+      <c r="D28" t="s">
+        <v>618</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>618</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" t="s">
+        <v>634</v>
+      </c>
+      <c r="D31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E31" t="s">
+        <v>636</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>612</v>
+      </c>
+      <c r="D32" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" t="s">
+        <v>614</v>
+      </c>
+      <c r="F32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>612</v>
+      </c>
+      <c r="D33" t="s">
+        <v>616</v>
+      </c>
+      <c r="E33" t="s">
+        <v>617</v>
+      </c>
+      <c r="F33" t="s">
+        <v>616</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="3:6">
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="3:6">
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="3:6">
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="3:6">
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="3:6">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="3:6">
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="3:6">
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="3:6">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="3:6">
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="3:6">
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="3:6">
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -7955,12 +14281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8094,16 +14420,16 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H4" s="2"/>
@@ -8130,13 +14456,13 @@
       <c r="D5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="16" t="s">
         <v>223</v>
       </c>
       <c r="H5" s="2"/>
@@ -8161,7 +14487,7 @@
       <c r="E7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="16" t="s">
         <v>226</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -8212,16 +14538,16 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>230</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="16" t="s">
         <v>232</v>
       </c>
       <c r="H9" s="2"/>
@@ -8233,16 +14559,16 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="16" t="s">
         <v>236</v>
       </c>
       <c r="H10" s="2"/>
@@ -8267,421 +14593,270 @@
       <c r="D12" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="16" t="s">
         <v>404</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:16">
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>398</v>
+        <v>729</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>648</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>399</v>
+        <v>704</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>400</v>
+        <v>731</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:16">
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>405</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>398</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:16">
       <c r="C15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27">
-        <v>10000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>1000</v>
+      </c>
       <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22" t="s">
+        <v>719</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" t="s">
+      <c r="D23" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D24" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -3722,7 +3722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3744,6 +3744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3858,7 +3864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3917,6 +3923,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9265,7 +9277,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E14" sqref="E14:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9751,8 +9763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9820,16 +9832,16 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>212</v>
       </c>
       <c r="H2" s="2"/>
@@ -9853,16 +9865,16 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H3" s="2"/>
@@ -9886,16 +9898,16 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H4" s="2"/>
@@ -9919,16 +9931,16 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H5" s="2"/>
@@ -9971,13 +9983,13 @@
       <c r="D8" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="20" t="s">
         <v>904</v>
       </c>
       <c r="H8" s="2"/>
@@ -10095,13 +10107,13 @@
       <c r="D14" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="7" t="s">
         <v>401</v>
       </c>
       <c r="H14" s="2"/>
@@ -10116,10 +10128,10 @@
       <c r="E15" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="20" t="s">
         <v>914</v>
       </c>
       <c r="H15" s="2"/>
@@ -10185,7 +10197,7 @@
       <c r="D19" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -10217,13 +10229,13 @@
       <c r="D21" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="7" t="s">
         <v>417</v>
       </c>
       <c r="H21" s="2"/>
@@ -10238,10 +10250,10 @@
       <c r="E22" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="20" t="s">
         <v>898</v>
       </c>
       <c r="H22" s="2"/>
@@ -10368,7 +10380,7 @@
       <c r="D34" t="s">
         <v>919</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="21" t="s">
         <v>920</v>
       </c>
       <c r="F34" t="s">
@@ -10388,10 +10400,10 @@
       <c r="E35" t="s">
         <v>915</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="21" t="s">
         <v>924</v>
       </c>
     </row>
@@ -10405,10 +10417,10 @@
       <c r="E36" t="s">
         <v>915</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="21" t="s">
         <v>927</v>
       </c>
     </row>
@@ -10433,7 +10445,7 @@
       <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="21" t="s">
         <v>932</v>
       </c>
       <c r="E38" t="s">

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhDProjects\RStudioProjects\mbDiscoveryR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -20,20 +25,20 @@
     <sheet name="50.5.6.1" sheetId="5" r:id="rId11"/>
     <sheet name="100.5.6.1" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="951">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3647,24 +3652,88 @@
   </si>
   <si>
     <t>0.38 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3673,20 +3742,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3695,7 +3764,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3703,7 +3772,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3712,13 +3781,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3921,39 +3990,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3971,7 +4040,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4008,7 +4077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4063,16 +4132,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,7 +4153,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82</c:v>
@@ -4093,7 +4162,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,16 +4214,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,7 +4235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84</c:v>
@@ -4175,7 +4244,7 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,16 +4296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,16 +4378,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4356,11 +4425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081686120"/>
-        <c:axId val="2080239416"/>
+        <c:axId val="212969152"/>
+        <c:axId val="212969712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081686120"/>
+        <c:axId val="212969152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,10 +4469,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080239416"/>
+        <c:crossAx val="212969712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4411,7 +4480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080239416"/>
+        <c:axId val="212969712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,10 +4528,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081686120"/>
+        <c:crossAx val="212969152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4501,7 +4570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4531,7 +4600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4545,7 +4614,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4582,7 +4651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4637,16 +4706,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4664,7 +4733,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72</c:v>
@@ -4719,16 +4788,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4801,16 +4870,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,16 +4952,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4910,7 +4979,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73</c:v>
@@ -4930,11 +4999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2080029144"/>
-        <c:axId val="2088949096"/>
+        <c:axId val="213565904"/>
+        <c:axId val="213566464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2080029144"/>
+        <c:axId val="213565904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4974,10 +5043,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088949096"/>
+        <c:crossAx val="213566464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4985,7 +5054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088949096"/>
+        <c:axId val="213566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,10 +5102,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080029144"/>
+        <c:crossAx val="213565904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5075,7 +5144,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5105,7 +5174,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5119,7 +5188,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5165,6 +5234,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5304,11 +5393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088855272"/>
-        <c:axId val="2088850040"/>
+        <c:axId val="213569824"/>
+        <c:axId val="213570384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088855272"/>
+        <c:axId val="213569824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,10 +5436,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088850040"/>
+        <c:crossAx val="213570384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5358,7 +5447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088850040"/>
+        <c:axId val="213570384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,10 +5495,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088855272"/>
+        <c:crossAx val="213569824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5448,7 +5537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5478,7 +5567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5492,7 +5581,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5538,6 +5627,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5654,7 +5763,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.73</c:v>
@@ -5677,11 +5786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088812664"/>
-        <c:axId val="2088807464"/>
+        <c:axId val="213798112"/>
+        <c:axId val="213798672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088812664"/>
+        <c:axId val="213798112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,10 +5829,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088807464"/>
+        <c:crossAx val="213798672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5731,7 +5840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088807464"/>
+        <c:axId val="213798672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,10 +5888,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088812664"/>
+        <c:crossAx val="213798112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5821,7 +5930,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5851,7 +5960,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8419,7 +8528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8433,15 +8542,15 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9250,8 +9359,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9268,11 +9377,11 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9749,23 +9858,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10349,7 +10458,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
       <c r="E33" t="s">
         <v>916</v>
@@ -10446,10 +10555,91 @@
         <v>919</v>
       </c>
     </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>20000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>935</v>
+      </c>
+      <c r="E40" t="s">
+        <v>936</v>
+      </c>
+      <c r="F40" t="s">
+        <v>937</v>
+      </c>
+      <c r="G40" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>939</v>
+      </c>
+      <c r="E41" t="s">
+        <v>940</v>
+      </c>
+      <c r="F41" t="s">
+        <v>941</v>
+      </c>
+      <c r="G41" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>943</v>
+      </c>
+      <c r="E42" t="s">
+        <v>944</v>
+      </c>
+      <c r="F42" t="s">
+        <v>945</v>
+      </c>
+      <c r="G42" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>947</v>
+      </c>
+      <c r="E43" t="s">
+        <v>948</v>
+      </c>
+      <c r="F43" t="s">
+        <v>949</v>
+      </c>
+      <c r="G43" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10466,11 +10656,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10608,12 +10798,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11456,11 +11646,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12044,12 +12234,12 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12904,12 +13094,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13493,17 +13683,17 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="4"/>
-    <col min="9" max="9" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11" style="4"/>
@@ -14867,11 +15057,11 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16029,12 +16219,12 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16558,11 +16748,11 @@
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <sheet name="7.2.3.1" sheetId="14" r:id="rId10"/>
     <sheet name="34.4.4.1" sheetId="15" r:id="rId11"/>
     <sheet name="50.5.6.1" sheetId="5" r:id="rId12"/>
-    <sheet name="100.5.6.1" sheetId="10" r:id="rId13"/>
+    <sheet name="70.6.5.1" sheetId="10" r:id="rId13"/>
+    <sheet name="90.5.6.1" sheetId="19" r:id="rId14"/>
+    <sheet name="150.5.6.1" sheetId="20" r:id="rId15"/>
+    <sheet name="optimize alpha" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet5" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1231">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3975,14 +3980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iamb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcmb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4053,13 +4050,701 @@
   <si>
     <t>0.84 $\pm$ 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.11 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.13 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.09 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.14 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.08 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.07 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.27 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.32 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.36 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.91 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f-measure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm 10000 pcmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm 1000 pcmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90 0.02</t>
+  </si>
+  <si>
+    <t>3  0.20 0.02</t>
+  </si>
+  <si>
+    <t>4  0.87 0.01</t>
+  </si>
+  <si>
+    <t>0.88 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2  0.89 0.01</t>
+  </si>
+  <si>
+    <t>1  0.89 0.02</t>
+  </si>
+  <si>
+    <t>0.71 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.74 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.34 $\pm$ 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.26 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.82 $\pm$ 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.87 0.02</t>
+  </si>
+  <si>
+    <t>3  0.21 0.02</t>
+  </si>
+  <si>
+    <t>4  0.86 0.01</t>
+  </si>
+  <si>
+    <t>90-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.29 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>1.17 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.3 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.39 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>1.13 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.33 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>1.15 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.24 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.43 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.96 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.28 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.67 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.23 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.57 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.31 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.87 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.49 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.37 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.86 $\pm$ 0.01</t>
+  </si>
+  <si>
+    <t>0.75 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.81 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.35 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t>0.77 $\pm$ 0.03</t>
+  </si>
+  <si>
+    <t>0.4 $\pm$ 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm 500 mml </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm 500 pcmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.89 0.01</t>
+  </si>
+  <si>
+    <t>2  0.71 0.02</t>
+  </si>
+  <si>
+    <t>alarm 500 iamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3  0.37 0.02</t>
+  </si>
+  <si>
+    <t>4  0.75 0.01</t>
+  </si>
+  <si>
+    <t>2  0.65 0.01</t>
+  </si>
+  <si>
+    <t>4  0.72 0.01</t>
+  </si>
+  <si>
+    <t>2  0.81 0.02</t>
+  </si>
+  <si>
+    <t>1  0.88 0.01</t>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-4-4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insurance, Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hailfinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70-5-6-1, 90-5-6-1, 150-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 500, 1000, 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 500, 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real models
+(real parameters)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial models
+(uniform prior)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real models
+(uniform prior)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.90 0.01</t>
+  </si>
+  <si>
+    <t>2  0.66 0.01</t>
+  </si>
+  <si>
+    <t>3  0.39 0.02</t>
+  </si>
+  <si>
+    <t>4  0.73 0.01</t>
+  </si>
+  <si>
+    <t>2  0.64 0.01</t>
+  </si>
+  <si>
+    <t>3  0.41 0.02</t>
+  </si>
+  <si>
+    <t>4  0.70 0.01</t>
+  </si>
+  <si>
+    <t>2  0.61 0.01</t>
+  </si>
+  <si>
+    <t>3  0.44 0.02</t>
+  </si>
+  <si>
+    <t>4  0.68 0.01</t>
+  </si>
+  <si>
+    <t>3  0.38 0.02</t>
+  </si>
+  <si>
+    <t>1  0.86 0.01</t>
+  </si>
+  <si>
+    <t>2  0.67 0.02</t>
+  </si>
+  <si>
+    <t>3  0.40 0.02</t>
+  </si>
+  <si>
+    <t>4  0.72 0.02</t>
+  </si>
+  <si>
+    <t>1  0.85 0.01</t>
+  </si>
+  <si>
+    <t>1  0.84 0.01</t>
+  </si>
+  <si>
+    <t>2  0.72 0.02</t>
+  </si>
+  <si>
+    <t>4  0.75 0.02</t>
+  </si>
+  <si>
+    <t>1  0.82 0.01</t>
+  </si>
+  <si>
+    <t>2  0.74 0.02</t>
+  </si>
+  <si>
+    <t>4  0.74 0.02</t>
+  </si>
+  <si>
+    <t>4  0.74 0.01</t>
+  </si>
+  <si>
+    <t>1  0.79 0.02</t>
+  </si>
+  <si>
+    <t>2  0.75 0.02</t>
+  </si>
+  <si>
+    <t>2  0.68 0.02</t>
+  </si>
+  <si>
+    <t>2  0.69 0.02</t>
+  </si>
+  <si>
+    <t>3  0.36 0.02</t>
+  </si>
+  <si>
+    <t>2  0.70 0.02</t>
+  </si>
+  <si>
+    <t>1  0.59 0.01</t>
+  </si>
+  <si>
+    <t>2  0.78 0.01</t>
+  </si>
+  <si>
+    <t>3  0.54 0.01</t>
+  </si>
+  <si>
+    <t>4  0.62 0.01</t>
+  </si>
+  <si>
+    <t>1  0.75 0.01</t>
+  </si>
+  <si>
+    <t>3  0.42 0.02</t>
+  </si>
+  <si>
+    <t>4  0.71 0.01</t>
+  </si>
+  <si>
+    <t>2  0.73 0.02</t>
+  </si>
+  <si>
+    <t>1  0.79 0.01</t>
+  </si>
+  <si>
+    <t>1  0.83 0.01</t>
+  </si>
+  <si>
+    <t>2  0.58 0.02</t>
+  </si>
+  <si>
+    <t>3  0.49 0.02</t>
+  </si>
+  <si>
+    <t>4  0.65 0.02</t>
+  </si>
+  <si>
+    <t>2  0.63 0.02</t>
+  </si>
+  <si>
+    <t>4  0.69 0.02</t>
+  </si>
+  <si>
+    <t>2  0.65 0.02</t>
+  </si>
+  <si>
+    <t>4  0.71 0.02</t>
+  </si>
+  <si>
+    <t>2  0.66 0.02</t>
+  </si>
+  <si>
+    <t>1  0.74 0.01</t>
+  </si>
+  <si>
+    <t>2  0.77 0.02</t>
+  </si>
+  <si>
+    <t>1  0.68 0.02</t>
+  </si>
+  <si>
+    <t>2  0.79 0.02</t>
+  </si>
+  <si>
+    <t>1  0.57 0.02</t>
+  </si>
+  <si>
+    <t>3  0.52 0.02</t>
+  </si>
+  <si>
+    <t>4  0.63 0.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4127,8 +4812,36 @@
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4153,8 +4866,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4162,8 +4885,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4263,8 +5019,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4325,8 +5087,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="34" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="33" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="33" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
+    <cellStyle name="好" xfId="33" builtinId="26"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4344,6 +5149,7 @@
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="34" builtinId="10"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4762,11 +5568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223806224"/>
-        <c:axId val="223806784"/>
+        <c:axId val="227392928"/>
+        <c:axId val="227393488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223806224"/>
+        <c:axId val="227392928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +5615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223806784"/>
+        <c:crossAx val="227393488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4817,7 +5623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223806784"/>
+        <c:axId val="227393488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +5674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223806224"/>
+        <c:crossAx val="227392928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5336,11 +6142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223811264"/>
-        <c:axId val="223811824"/>
+        <c:axId val="228013056"/>
+        <c:axId val="228013616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223811264"/>
+        <c:axId val="228013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5383,7 +6189,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223811824"/>
+        <c:crossAx val="228013616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5391,7 +6197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223811824"/>
+        <c:axId val="228013616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5442,7 +6248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223811264"/>
+        <c:crossAx val="228013056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5730,11 +6536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224128736"/>
-        <c:axId val="224129296"/>
+        <c:axId val="228016976"/>
+        <c:axId val="228017536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224128736"/>
+        <c:axId val="228016976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,7 +6582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224129296"/>
+        <c:crossAx val="228017536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,7 +6590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224129296"/>
+        <c:axId val="228017536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5835,7 +6641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224128736"/>
+        <c:crossAx val="228016976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6123,11 +6929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224132096"/>
-        <c:axId val="224132656"/>
+        <c:axId val="228089216"/>
+        <c:axId val="228089776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224132096"/>
+        <c:axId val="228089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6169,7 +6975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224132656"/>
+        <c:crossAx val="228089776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6177,7 +6983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224132656"/>
+        <c:axId val="228089776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,7 +7034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224132096"/>
+        <c:crossAx val="228089216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6349,6 +7155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6389,11 +7196,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$B$1</c:f>
+              <c:f>'70.6.5.1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iamb</c:v>
+                  <c:v>Instances</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6424,21 +7231,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$B$2:$B$5</c:f>
+              <c:f>'70.6.5.1'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6450,11 +7248,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$C$1</c:f>
+              <c:f>'70.6.5.1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pcmb</c:v>
+                  <c:v>Algorithm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6485,21 +7283,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$C$2:$C$5</c:f>
+              <c:f>'70.6.5.1'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,11 +7300,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$D$1</c:f>
+              <c:f>'70.6.5.1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mml</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6546,21 +7335,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$D$2:$D$5</c:f>
+              <c:f>'70.6.5.1'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6577,11 +7366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224913744"/>
-        <c:axId val="224914304"/>
+        <c:axId val="228093136"/>
+        <c:axId val="228093696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224913744"/>
+        <c:axId val="228093136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6623,7 +7412,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224914304"/>
+        <c:crossAx val="228093696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6631,7 +7420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224914304"/>
+        <c:axId val="228093696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6682,7 +7471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224913744"/>
+        <c:crossAx val="228093136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6696,6 +7485,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6803,6 +7593,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6843,11 +7634,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$B$6</c:f>
+              <c:f>'70.6.5.1'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iamb</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6878,22 +7669,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$B$7:$B$10</c:f>
+              <c:f>'70.6.5.1'!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6904,11 +7683,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$C$6</c:f>
+              <c:f>'70.6.5.1'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pcmb</c:v>
+                  <c:v>IAMB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6939,21 +7718,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$C$7:$C$10</c:f>
+              <c:f>'70.6.5.1'!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,11 +7744,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$D$6</c:f>
+              <c:f>'70.6.5.1'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mml</c:v>
+                  <c:v>0.51 $\pm$ 0.02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7000,21 +7779,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$D$7:$D$10</c:f>
+              <c:f>'70.6.5.1'!$D$7:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7031,11 +7810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224918224"/>
-        <c:axId val="224918784"/>
+        <c:axId val="229527536"/>
+        <c:axId val="229528096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224918224"/>
+        <c:axId val="229527536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7077,7 +7856,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224918784"/>
+        <c:crossAx val="229528096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7085,7 +7864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224918784"/>
+        <c:axId val="229528096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7136,7 +7915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224918224"/>
+        <c:crossAx val="229527536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7150,6 +7929,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,6 +8037,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7297,12 +8078,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$B$11</c:f>
+              <c:f>'70.6.5.1'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iamb</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -7332,24 +8110,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$B$12:$B$16</c:f>
+              <c:f>'70.6.5.1'!$B$8:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7361,11 +8127,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$C$11</c:f>
+              <c:f>'70.6.5.1'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pcmb</c:v>
+                  <c:v>MMLCPT (sym)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7396,24 +8162,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$C$12:$C$16</c:f>
+              <c:f>'70.6.5.1'!$C$8:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7425,11 +8191,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100.5.6.1'!$D$11</c:f>
+              <c:f>'70.6.5.1'!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mml</c:v>
+                  <c:v>0.72 $\pm$ 0.02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7460,24 +8226,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'100.5.6.1'!$D$12:$D$16</c:f>
+              <c:f>'70.6.5.1'!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7494,11 +8260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225466496"/>
-        <c:axId val="225467056"/>
+        <c:axId val="229532016"/>
+        <c:axId val="229532576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225466496"/>
+        <c:axId val="229532016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7540,7 +8306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225467056"/>
+        <c:crossAx val="229532576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7548,7 +8314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225467056"/>
+        <c:axId val="229532576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7599,7 +8365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225466496"/>
+        <c:crossAx val="229532016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7613,6 +8379,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11628,7 +12395,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11658,7 +12427,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11688,7 +12459,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13779,7 +14552,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G35"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -14544,10 +15317,2218 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
+        <v>500</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <v>20000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
+        <v>500</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <v>20000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
+        <v>500</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1">
+        <v>0.01</v>
+      </c>
+      <c r="C1">
+        <v>0.03</v>
+      </c>
+      <c r="D1">
+        <v>0.05</v>
+      </c>
+      <c r="E1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F1">
+        <v>0.09</v>
+      </c>
+      <c r="G1">
+        <v>0.11</v>
+      </c>
+      <c r="H1">
+        <v>0.13</v>
+      </c>
+      <c r="I1">
+        <v>0.15</v>
+      </c>
+      <c r="J1">
+        <v>0.17</v>
+      </c>
+      <c r="K1">
+        <v>0.19</v>
+      </c>
+      <c r="L1">
+        <v>0.21</v>
+      </c>
+      <c r="M1">
+        <v>0.23</v>
+      </c>
+      <c r="N1">
+        <v>0.25</v>
+      </c>
+      <c r="O1">
+        <v>0.27</v>
+      </c>
+      <c r="P1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.09</v>
+      </c>
+      <c r="G8">
+        <v>0.11</v>
+      </c>
+      <c r="H8">
+        <v>0.13</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B15" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B21">
+        <v>1E-3</v>
+      </c>
+      <c r="C21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="H21">
+        <v>0.05</v>
+      </c>
+      <c r="I21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.09</v>
+      </c>
+      <c r="K21">
+        <v>0.15</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D27">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I27">
+        <v>0.01</v>
+      </c>
+      <c r="J27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -14560,13 +17541,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -14627,13 +17608,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>1015</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -14697,13 +17678,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>1015</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14812,13 +17793,456 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C1">
+        <v>0.01</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(B1, " $\pm$ ", C1)</f>
+        <v>0.57 $\pm$ 0.01</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE(B2, " $\pm$ ", C2)</f>
+        <v>0.31 $\pm$ 0.01</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(B3, " $\pm$ ", C3)</f>
+        <v>0.87 $\pm$ 0.01</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE(B4, " $\pm$ ", C4)</f>
+        <v>0.33 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.31</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B5, " $\pm$ ", C5)</f>
+        <v>0.49 $\pm$ 0.01</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(B6, " $\pm$ ", C6)</f>
+        <v>0.37 $\pm$ 0.02</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(B7, " $\pm$ ", C7)</f>
+        <v>0.86 $\pm$ 0.01</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(B8, " $\pm$ ", C8)</f>
+        <v>0.36 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="27">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.87</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(B9, " $\pm$ ", C9)</f>
+        <v>0.75 $\pm$ 0.02</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(B10, " $\pm$ ", C10)</f>
+        <v>0.3 $\pm$ 0.01</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE(B11, " $\pm$ ", C11)</f>
+        <v>0.81 $\pm$ 0.02</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE(B12, " $\pm$ ", C12)</f>
+        <v>0.37 $\pm$ 0.02</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.33</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(B13, " $\pm$ ", C13)</f>
+        <v>0.75 $\pm$ 0.02</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(B14, " $\pm$ ", C14)</f>
+        <v>0.3 $\pm$ 0.01</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE(B15, " $\pm$ ", C15)</f>
+        <v>0.81 $\pm$ 0.02</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE(B16, " $\pm$ ", C16)</f>
+        <v>0.37 $\pm$ 0.02</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.49</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(B17, " $\pm$ ", C17)</f>
+        <v>0.74 $\pm$ 0.02</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE(B18, " $\pm$ ", C18)</f>
+        <v>0.28 $\pm$ 0.01</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE(B19, " $\pm$ ", C19)</f>
+        <v>0.82 $\pm$ 0.02</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE(B20, " $\pm$ ", C20)</f>
+        <v>0.35 $\pm$ 0.02</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.37</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(B21, " $\pm$ ", C21)</f>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE(B22, " $\pm$ ", C22)</f>
+        <v>0.32 $\pm$ 0.02</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE(B23, " $\pm$ ", C23)</f>
+        <v>0.77 $\pm$ 0.03</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE(B24, " $\pm$ ", C24)</f>
+        <v>0.4 $\pm$ 0.02</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.86</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.36</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.75</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.81</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.37</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.81</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.37</v>
+      </c>
+      <c r="C16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.74</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.82</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.35</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.76</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.32</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.77</v>
+      </c>
+      <c r="C23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -20776,8 +24200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21170,13 +24594,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>1018</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1020</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>1002</v>
@@ -21189,13 +24613,13 @@
         <v>283</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>1014</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>1004</v>
@@ -21208,16 +24632,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -21227,16 +24651,16 @@
         <v>284</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -21246,16 +24670,16 @@
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>1028</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -21265,16 +24689,16 @@
         <v>28</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="26" spans="1:7">

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1276">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4216,22 +4216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.96 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.97 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.96 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>precision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4248,73 +4232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.98 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarm 10000 pcmb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarm 1000 pcmb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.91 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.78 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.27 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.82 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.87 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.19 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90 0.02</t>
-  </si>
-  <si>
-    <t>3  0.20 0.02</t>
-  </si>
-  <si>
-    <t>4  0.87 0.01</t>
-  </si>
-  <si>
-    <t>0.88 0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.20 0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2  0.89 0.01</t>
-  </si>
-  <si>
-    <t>1  0.89 0.02</t>
-  </si>
-  <si>
     <t>0.71 $\pm$ 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4381,15 +4298,6 @@
   <si>
     <t>70-5-6-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1  0.87 0.02</t>
-  </si>
-  <si>
-    <t>3  0.21 0.02</t>
-  </si>
-  <si>
-    <t>4  0.86 0.01</t>
   </si>
   <si>
     <t>90-5-6-1</t>
@@ -4738,13 +4646,293 @@
   </si>
   <si>
     <t>4  0.63 0.02</t>
+  </si>
+  <si>
+    <t>Traing for optimal prior/critical value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing using optimized values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 0.02 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.77 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.91 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.18 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.98 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4811,12 +4999,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5019,14 +5201,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5111,22 +5293,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="34" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="33" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5568,11 +5747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227392928"/>
-        <c:axId val="227393488"/>
+        <c:axId val="226662016"/>
+        <c:axId val="226662576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227392928"/>
+        <c:axId val="226662016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227393488"/>
+        <c:crossAx val="226662576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5623,7 +5802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227393488"/>
+        <c:axId val="226662576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +5853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227392928"/>
+        <c:crossAx val="226662016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6142,11 +6321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228013056"/>
-        <c:axId val="228013616"/>
+        <c:axId val="226667056"/>
+        <c:axId val="226948672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228013056"/>
+        <c:axId val="226667056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6368,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228013616"/>
+        <c:crossAx val="226948672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6197,7 +6376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228013616"/>
+        <c:axId val="226948672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228013056"/>
+        <c:crossAx val="226667056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6536,11 +6715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228016976"/>
-        <c:axId val="228017536"/>
+        <c:axId val="226952032"/>
+        <c:axId val="226952592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228016976"/>
+        <c:axId val="226952032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6582,7 +6761,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228017536"/>
+        <c:crossAx val="226952592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6590,7 +6769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228017536"/>
+        <c:axId val="226952592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,7 +6820,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228016976"/>
+        <c:crossAx val="226952032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6929,11 +7108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228089216"/>
-        <c:axId val="228089776"/>
+        <c:axId val="226955392"/>
+        <c:axId val="226955952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228089216"/>
+        <c:axId val="226955392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,7 +7154,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228089776"/>
+        <c:crossAx val="226955952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6983,7 +7162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228089776"/>
+        <c:axId val="226955952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7034,7 +7213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228089216"/>
+        <c:crossAx val="226955392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7366,11 +7545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228093136"/>
-        <c:axId val="228093696"/>
+        <c:axId val="227382400"/>
+        <c:axId val="227382960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228093136"/>
+        <c:axId val="227382400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7412,7 +7591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228093696"/>
+        <c:crossAx val="227382960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7420,7 +7599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228093696"/>
+        <c:axId val="227382960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7471,7 +7650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228093136"/>
+        <c:crossAx val="227382400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7810,11 +7989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229527536"/>
-        <c:axId val="229528096"/>
+        <c:axId val="227386320"/>
+        <c:axId val="227386880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229527536"/>
+        <c:axId val="227386320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7856,7 +8035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229528096"/>
+        <c:crossAx val="227386880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7864,7 +8043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229528096"/>
+        <c:axId val="227386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7915,7 +8094,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229527536"/>
+        <c:crossAx val="227386320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8260,11 +8439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229532016"/>
-        <c:axId val="229532576"/>
+        <c:axId val="228392016"/>
+        <c:axId val="228392576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229532016"/>
+        <c:axId val="228392016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8306,7 +8485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229532576"/>
+        <c:crossAx val="228392576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8314,7 +8493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229532576"/>
+        <c:axId val="228392576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,7 +8544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229532016"/>
+        <c:crossAx val="228392016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15358,7 +15537,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
@@ -15599,16 +15778,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -15621,10 +15800,10 @@
         <v>1053</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>1043</v>
@@ -15637,16 +15816,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -15656,16 +15835,16 @@
         <v>284</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -15675,16 +15854,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -15694,16 +15873,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>1061</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -15908,7 +16087,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
@@ -16149,16 +16328,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -16171,10 +16350,10 @@
         <v>1053</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>1043</v>
@@ -16187,16 +16366,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -16206,16 +16385,16 @@
         <v>284</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>1072</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -16225,16 +16404,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -16244,16 +16423,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>1061</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -16429,7 +16608,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="4">
         <v>100</v>
@@ -16438,13 +16617,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>1034</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>1039</v>
@@ -16457,13 +16636,13 @@
         <v>861</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>1039</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>1039</v>
@@ -16476,13 +16655,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>1039</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>1045</v>
@@ -16495,13 +16674,13 @@
         <v>862</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>1039</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>1045</v>
@@ -16514,13 +16693,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>1034</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>1045</v>
@@ -16533,13 +16712,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>1039</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>1045</v>
@@ -16557,7 +16736,7 @@
         <v>852</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>884</v>
@@ -16573,16 +16752,16 @@
         <v>283</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16595,13 +16774,13 @@
         <v>851</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>881</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16614,13 +16793,13 @@
         <v>851</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>881</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16630,16 +16809,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>1067</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -16649,10 +16828,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>1056</v>
@@ -16670,16 +16849,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -16689,13 +16868,13 @@
         <v>283</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1144</v>
+        <v>1119</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>1063</v>
@@ -16708,16 +16887,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -16727,16 +16906,16 @@
         <v>284</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -16746,16 +16925,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>1147</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -16771,10 +16950,10 @@
         <v>1060</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>1148</v>
+        <v>1123</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>1149</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -16785,735 +16964,1384 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="17">
         <v>0.01</v>
       </c>
-      <c r="C1">
+      <c r="G8" s="18">
         <v>0.03</v>
       </c>
-      <c r="D1">
+      <c r="H8">
         <v>0.05</v>
       </c>
-      <c r="E1">
+      <c r="I8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F1">
+      <c r="J8">
         <v>0.09</v>
       </c>
-      <c r="G1">
-        <v>0.11</v>
-      </c>
-      <c r="H1">
-        <v>0.13</v>
-      </c>
-      <c r="I1">
+      <c r="K8">
         <v>0.15</v>
       </c>
-      <c r="J1">
-        <v>0.17</v>
-      </c>
-      <c r="K1">
-        <v>0.19</v>
-      </c>
-      <c r="L1">
-        <v>0.21</v>
-      </c>
-      <c r="M1">
-        <v>0.23</v>
-      </c>
-      <c r="N1">
-        <v>0.25</v>
-      </c>
-      <c r="O1">
-        <v>0.27</v>
-      </c>
-      <c r="P1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>1079</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D14">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B16" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B17" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>1079</v>
       </c>
-      <c r="D5" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0.05</v>
-      </c>
-      <c r="E8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.09</v>
-      </c>
-      <c r="G8">
-        <v>0.11</v>
-      </c>
-      <c r="H8">
-        <v>0.13</v>
-      </c>
-      <c r="I8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B15" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="B18" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J18" t="s">
         <v>1184</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B19" s="30" t="s">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H22" t="str">
+        <f>CONCATENATE(LEFT(C22,SEARCH(" ",C22,1)), "$\pm$", RIGHT(C22,SEARCH(" ",C22,1)))</f>
+        <v>0.63 $\pm$ 0.03</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I27" si="0">CONCATENATE(LEFT(D22,SEARCH(" ",D22,1)), "$\pm$", RIGHT(D22,SEARCH(" ",D22,1)))</f>
+        <v>0.32 $\pm$ 0.02</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22:J27" si="1">CONCATENATE(LEFT(E22,SEARCH(" ",E22,1)), "$\pm$", RIGHT(E22,SEARCH(" ",E22,1)))</f>
+        <v>0.83 $\pm$ 0.03</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K27" si="2">CONCATENATE(LEFT(F22,SEARCH(" ",F22,1)), "$\pm$", RIGHT(F22,SEARCH(" ",F22,1)))</f>
+        <v>0.39 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ref="H23:H27" si="3">CONCATENATE(LEFT(C23,SEARCH(" ",C23,1)), "$\pm$", RIGHT(C23,SEARCH(" ",C23,1)))</f>
+        <v>0.66 $\pm$ 0.03</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">0.38 $\pm$0.02 </v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.76 $\pm$ 0.03</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>0.45 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B21">
-        <v>1E-3</v>
-      </c>
-      <c r="C21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E21">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="H21">
-        <v>0.05</v>
-      </c>
-      <c r="I21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J21">
-        <v>0.09</v>
-      </c>
-      <c r="K21">
-        <v>0.15</v>
-      </c>
-      <c r="L21">
-        <v>0.2</v>
-      </c>
-      <c r="M21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D24" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>1215</v>
       </c>
-      <c r="C22" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>0.65 $\pm$ 0.03</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>0.41 $\pm$ 0.02</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.75 $\pm$ 0.03</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.46 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.65 $\pm$ 0.03</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>0.41 $\pm$ 0.02</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>0.75 $\pm$ 0.03</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>0.46 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>0.69 $\pm$ 0.02</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>0.43 $\pm$ 0.01</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>0.7 $\pm$0.02</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>0.49 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="L22" t="s">
+      <c r="D27" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="M22" t="s">
+      <c r="F27" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>0.68 $\pm$ 0.03</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>0.53 $\pm$ 0.02</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>0.64 $\pm$ 0.03</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>0.55 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>500</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1225</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1227</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="D28" s="10" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="E28" s="10" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C27" s="7">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D27">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G27">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H27">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I27">
-        <v>0.01</v>
-      </c>
-      <c r="J27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1209</v>
+      <c r="F28" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H28" t="str">
+        <f>CONCATENATE(LEFT(C28,SEARCH(" ",C28,1)), "$\pm$", RIGHT(C28,SEARCH(" ",C28,1)))</f>
+        <v>0.89 $\pm$ 0.02</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="4">CONCATENATE(LEFT(D28,SEARCH(" ",D28,1)), "$\pm$", RIGHT(D28,SEARCH(" ",D28,1)))</f>
+        <v>0.73 $\pm$ 0.02</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28:J33" si="5">CONCATENATE(LEFT(E28,SEARCH(" ",E28,1)), "$\pm$", RIGHT(E28,SEARCH(" ",E28,1)))</f>
+        <v>0.33 $\pm$ 0.02</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ref="K28:K33" si="6">CONCATENATE(LEFT(F28,SEARCH(" ",F28,1)), "$\pm$", RIGHT(F28,SEARCH(" ",F28,1)))</f>
+        <v>0.77 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ref="H29:H33" si="7">CONCATENATE(LEFT(C29,SEARCH(" ",C29,1)), "$\pm$", RIGHT(C29,SEARCH(" ",C29,1)))</f>
+        <v>0.9 $\pm$0.02</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>0.81 $\pm$ 0.02</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>0.25 $\pm$ 0.02</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="6"/>
+        <v>0.83 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="7"/>
+        <v>0.88 $\pm$ 0.02</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>0.72 $\pm$ 0.02</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v>0.34 $\pm$ 0.03</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="6"/>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="7"/>
+        <v>0.87 $\pm$ 0.02</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>0.72 $\pm$ 0.02</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>0.34 $\pm$ 0.03</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="6"/>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="7"/>
+        <v>0.91 $\pm$ 0.02</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>0.67 $\pm$ 0.02</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>0.37 $\pm$ 0.02</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="6"/>
+        <v>0.73 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="7"/>
+        <v>0.94 $\pm$ 0.01</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>0.79 $\pm$ 0.02</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>0.24 $\pm$ 0.02</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="6"/>
+        <v>0.83 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H34" t="str">
+        <f>CONCATENATE(LEFT(C34,SEARCH(" ",C34,1)), "$\pm$", RIGHT(C34,SEARCH(" ",C34,1)))</f>
+        <v>0.91 $\pm$ 0.01</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ref="I34:I39" si="8">CONCATENATE(LEFT(D34,SEARCH(" ",D34,1)), "$\pm$", RIGHT(D34,SEARCH(" ",D34,1)))</f>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J39" si="9">CONCATENATE(LEFT(E34,SEARCH(" ",E34,1)), "$\pm$", RIGHT(E34,SEARCH(" ",E34,1)))</f>
+        <v>0.23 $\pm$ 0.02</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:K39" si="10">CONCATENATE(LEFT(F34,SEARCH(" ",F34,1)), "$\pm$", RIGHT(F34,SEARCH(" ",F34,1)))</f>
+        <v>0.84 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ref="H35:H39" si="11">CONCATENATE(LEFT(C35,SEARCH(" ",C35,1)), "$\pm$", RIGHT(C35,SEARCH(" ",C35,1)))</f>
+        <v>0.89 $\pm$ 0.02</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="8"/>
+        <v>0.9 $\pm$0.02</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="9"/>
+        <v>0.19 $\pm$ 0.02</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="10"/>
+        <v>0.88 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="11"/>
+        <v>0.89 $\pm$ 0.02</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="8"/>
+        <v>0.81 $\pm$ 0.01</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="9"/>
+        <v>0.26 $\pm$ 0.02</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="10"/>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="11"/>
+        <v>0.88 $\pm$ 0.02</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="8"/>
+        <v>0.81 $\pm$ 0.01</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="9"/>
+        <v>0.27 $\pm$ 0.02</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="10"/>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="11"/>
+        <v>0.95 $\pm$ 0.01</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="8"/>
+        <v>0.75 $\pm$ 0.02</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="9"/>
+        <v>0.28 $\pm$ 0.02</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="10"/>
+        <v>0.8 $\pm$0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="11"/>
+        <v>0.96 $\pm$ 0.01</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="8"/>
+        <v>0.85 $\pm$ 0.01</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="9"/>
+        <v>0.18 $\pm$ 0.02</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="10"/>
+        <v>0.88 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE(LEFT(C40,SEARCH(" ",C40,1)), "$\pm$", RIGHT(C40,SEARCH(" ",C40,1)))</f>
+        <v>0.92 $\pm$ 0.01</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" ref="I40:I45" si="12">CONCATENATE(LEFT(D40,SEARCH(" ",D40,1)), "$\pm$", RIGHT(D40,SEARCH(" ",D40,1)))</f>
+        <v>0.94 $\pm$ 0.02</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:J45" si="13">CONCATENATE(LEFT(E40,SEARCH(" ",E40,1)), "$\pm$", RIGHT(E40,SEARCH(" ",E40,1)))</f>
+        <v>0.12 $\pm$ 0.02</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ref="K40:K45" si="14">CONCATENATE(LEFT(F40,SEARCH(" ",F40,1)), "$\pm$", RIGHT(F40,SEARCH(" ",F40,1)))</f>
+        <v>0.92 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ref="H41:H45" si="15">CONCATENATE(LEFT(C41,SEARCH(" ",C41,1)), "$\pm$", RIGHT(C41,SEARCH(" ",C41,1)))</f>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="12"/>
+        <v>0.97 $\pm$ 0.01</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="13"/>
+        <v>0.2 $\pm$0.02</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="14"/>
+        <v>0.87 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="15"/>
+        <v>0.95 $\pm$ 0.01</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="12"/>
+        <v>0.93 $\pm$ 0.02</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="13"/>
+        <v>0.1 $\pm$0.02</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="14"/>
+        <v>0.93 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="15"/>
+        <v>0.95 $\pm$ 0.01</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="12"/>
+        <v>0.93 $\pm$ 0.02</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="13"/>
+        <v>0.1 $\pm$0.02</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="14"/>
+        <v>0.93 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="15"/>
+        <v>0.98 $\pm$ 0.01</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="12"/>
+        <v>0.89 $\pm$ 0.02</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="13"/>
+        <v>0.11 $\pm$ 0.02</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="14"/>
+        <v>0.92 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="15"/>
+        <v>0.99 $\pm$ 0.01</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="12"/>
+        <v>0.96 $\pm$ 0.01</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="13"/>
+        <v>0.05 $\pm$ 0.02</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="14"/>
+        <v>0.97 $\pm$ 0.01</v>
       </c>
     </row>
   </sheetData>
@@ -17528,7 +18356,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -17802,7 +18630,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17895,18 +18723,18 @@
         <f>CONCATENATE(B12, " $\pm$ ", C12)</f>
         <v>0.37 $\pm$ 0.02</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1171</v>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -17935,16 +18763,16 @@
         <f>CONCATENATE(B16, " $\pm$ ", C16)</f>
         <v>0.37 $\pm$ 0.02</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>1165</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31" t="s">
-        <v>1172</v>
+      <c r="J4" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -17973,20 +18801,20 @@
         <f>CONCATENATE(B20, " $\pm$ ", C20)</f>
         <v>0.35 $\pm$ 0.02</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>1162</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>1168</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>1172</v>
+      <c r="J5" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18015,20 +18843,20 @@
         <f>CONCATENATE(B24, " $\pm$ ", C24)</f>
         <v>0.4 $\pm$ 0.02</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>1169</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>1172</v>
+      <c r="J6" s="32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18041,16 +18869,16 @@
       <c r="C7">
         <v>0.01</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>1170</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
-        <v>1173</v>
+      <c r="J7" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -21136,7 +21964,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="B1" sqref="B1:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="7" activeTab="15"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1470">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5562,13 +5562,90 @@
   <si>
     <t>0.12 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrmr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.41 0</t>
+  </si>
+  <si>
+    <t>2  0.41 0</t>
+  </si>
+  <si>
+    <t>3  0.84 0</t>
+  </si>
+  <si>
+    <t>4  0.41 0</t>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.93 0.03</t>
+  </si>
+  <si>
+    <t>2  0.80 0.03</t>
+  </si>
+  <si>
+    <t>3  0.23 0.04</t>
+  </si>
+  <si>
+    <t>4  0.84 0.03</t>
+  </si>
+  <si>
+    <t>1  0.78 0.03</t>
+  </si>
+  <si>
+    <t>2  0.58 0.03</t>
+  </si>
+  <si>
+    <t>3  0.51 0.05</t>
+  </si>
+  <si>
+    <t>4  0.65 0.03</t>
+  </si>
+  <si>
+    <t>1  0.94 0.03</t>
+  </si>
+  <si>
+    <t>2  0.79 0.03</t>
+  </si>
+  <si>
+    <t>3  0.24 0.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5661,6 +5738,13 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5849,7 +5933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6001,6 +6085,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6442,11 +6529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222163712"/>
-        <c:axId val="222164272"/>
+        <c:axId val="228110400"/>
+        <c:axId val="228110960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222163712"/>
+        <c:axId val="228110400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6489,7 +6576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222164272"/>
+        <c:crossAx val="228110960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6497,7 +6584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222164272"/>
+        <c:axId val="228110960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222163712"/>
+        <c:crossAx val="228110400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7016,11 +7103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222168752"/>
-        <c:axId val="222169312"/>
+        <c:axId val="230782928"/>
+        <c:axId val="230783488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222168752"/>
+        <c:axId val="230782928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7063,7 +7150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222169312"/>
+        <c:crossAx val="230783488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7071,7 +7158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222169312"/>
+        <c:axId val="230783488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,7 +7209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222168752"/>
+        <c:crossAx val="230782928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7243,6 +7330,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7410,11 +7498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221628784"/>
-        <c:axId val="221629344"/>
+        <c:axId val="230786848"/>
+        <c:axId val="230787408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221628784"/>
+        <c:axId val="230786848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221629344"/>
+        <c:crossAx val="230787408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7464,7 +7552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221629344"/>
+        <c:axId val="230787408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7515,7 +7603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221628784"/>
+        <c:crossAx val="230786848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7529,6 +7617,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7636,6 +7725,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7803,11 +7893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221632144"/>
-        <c:axId val="221632704"/>
+        <c:axId val="231109040"/>
+        <c:axId val="231109600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221632144"/>
+        <c:axId val="231109040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7849,7 +7939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221632704"/>
+        <c:crossAx val="231109600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7857,7 +7947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221632704"/>
+        <c:axId val="231109600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,7 +7998,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221632144"/>
+        <c:crossAx val="231109040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7922,6 +8012,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8029,7 +8120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8240,11 +8330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223200288"/>
-        <c:axId val="223200848"/>
+        <c:axId val="231113520"/>
+        <c:axId val="231114080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223200288"/>
+        <c:axId val="231113520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8286,7 +8376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223200848"/>
+        <c:crossAx val="231114080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8294,7 +8384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223200848"/>
+        <c:axId val="231114080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8345,7 +8435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223200288"/>
+        <c:crossAx val="231113520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8359,7 +8449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8467,7 +8556,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8684,11 +8772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223204208"/>
-        <c:axId val="223204768"/>
+        <c:axId val="231271264"/>
+        <c:axId val="231271824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223204208"/>
+        <c:axId val="231271264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8730,7 +8818,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223204768"/>
+        <c:crossAx val="231271824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8738,7 +8826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223204768"/>
+        <c:axId val="231271824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8789,7 +8877,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223204208"/>
+        <c:crossAx val="231271264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8803,7 +8891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8911,7 +8998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9134,11 +9220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223434352"/>
-        <c:axId val="223434912"/>
+        <c:axId val="231275744"/>
+        <c:axId val="231276304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223434352"/>
+        <c:axId val="231275744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9180,7 +9266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223434912"/>
+        <c:crossAx val="231276304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9188,7 +9274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223434912"/>
+        <c:axId val="231276304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9239,7 +9325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223434352"/>
+        <c:crossAx val="231275744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9253,7 +9339,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16807,7 +16892,7 @@
         <v>0.43 $\pm$ 0.02</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f t="shared" ref="J2:L25" si="0">CONCATENATE(LEFT(E2,SEARCH(" ",E2,1)), "$\pm$", RIGHT(E2,SEARCH(" ",E2,1)))</f>
+        <f t="shared" ref="J2:L19" si="0">CONCATENATE(LEFT(E2,SEARCH(" ",E2,1)), "$\pm$", RIGHT(E2,SEARCH(" ",E2,1)))</f>
         <v>0.14 $\pm$ 0.01</v>
       </c>
       <c r="K2" s="4" t="str">
@@ -17818,8 +17903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85:K90"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21552,10 +21637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -21567,829 +21652,1093 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="42" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="51">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="38">
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="38">
         <v>0.6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="38">
         <v>0.66</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="38">
         <v>0.32</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="38">
         <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="38">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="38">
         <v>0.72</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="38">
         <v>0.8</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="38">
         <v>0.53</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="38">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="38">
         <v>800</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="38">
         <v>0.86</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="38">
         <v>0.93</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="38">
         <v>0.72</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="38">
         <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="38">
         <v>3200</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="38">
         <v>0.89</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="38">
         <v>0.98</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="38">
         <v>0.73</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="38">
         <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="42" t="s">
         <v>389</v>
       </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="42" t="s">
         <v>393</v>
       </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="42" t="s">
         <v>405</v>
       </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="42" t="s">
         <v>398</v>
       </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="42" t="s">
         <v>373</v>
       </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="42" t="s">
         <v>373</v>
       </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="42" t="s">
         <v>409</v>
       </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="42" t="s">
         <v>413</v>
       </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51">
         <v>200</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="42" t="s">
         <v>416</v>
       </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="42" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="42" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="42" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="42" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="42" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51">
         <v>800</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="38" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="38" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="38" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="38" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="38" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="38" t="s">
         <v>438</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="38" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3">
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51">
         <v>3200</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="38" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="38" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="38" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="38" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="38" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="38" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="3">
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="38"/>
+      <c r="B33" s="51">
         <v>4000</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="38" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="38"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="38" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="38"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="38" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="38"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="38" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="38"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="G37" s="42"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="38"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="38" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="38"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="38" t="s">
         <v>472</v>
+      </c>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="38">
+        <v>10000</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="38" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="38" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1497">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5639,6 +5639,94 @@
   </si>
   <si>
     <t>3  0.24 0.04</t>
+  </si>
+  <si>
+    <t>optimization using first 5 models under 500 samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 datasets each model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1  0.84 0.02</t>
+  </si>
+  <si>
+    <t>2  0.42 0.02</t>
+  </si>
+  <si>
+    <t>3  0.65 0.02</t>
+  </si>
+  <si>
+    <t>4  0.50 0.02</t>
+  </si>
+  <si>
+    <t>1  0.90 0.02</t>
+  </si>
+  <si>
+    <t>2  0.50 0.02</t>
+  </si>
+  <si>
+    <t>3  0.54 0.02</t>
+  </si>
+  <si>
+    <t>4  0.59 0.02</t>
+  </si>
+  <si>
+    <t>2  0.49 0.02</t>
+  </si>
+  <si>
+    <t>3  0.56 0.02</t>
+  </si>
+  <si>
+    <t>4  0.57 0.02</t>
+  </si>
+  <si>
+    <t>2  0.47 0.02</t>
+  </si>
+  <si>
+    <t>3  0.58 0.02</t>
+  </si>
+  <si>
+    <t>4  0.55 0.02</t>
+  </si>
+  <si>
+    <t>2  0.46 0.02</t>
+  </si>
+  <si>
+    <t>3  0.59 0.02</t>
+  </si>
+  <si>
+    <t>4  0.54 0.01</t>
+  </si>
+  <si>
+    <t>2  0.51 0.02</t>
+  </si>
+  <si>
+    <t>3  0.53 0.02</t>
+  </si>
+  <si>
+    <t>1  0.91 0.02</t>
   </si>
 </sst>
 </file>
@@ -5933,7 +6021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6088,6 +6176,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6529,11 +6622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228110400"/>
-        <c:axId val="228110960"/>
+        <c:axId val="226052016"/>
+        <c:axId val="226052576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228110400"/>
+        <c:axId val="226052016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228110960"/>
+        <c:crossAx val="226052576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6584,7 +6677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228110960"/>
+        <c:axId val="226052576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228110400"/>
+        <c:crossAx val="226052016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7103,11 +7196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="230782928"/>
-        <c:axId val="230783488"/>
+        <c:axId val="226057056"/>
+        <c:axId val="226057616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230782928"/>
+        <c:axId val="226057056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,7 +7243,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230783488"/>
+        <c:crossAx val="226057616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7158,7 +7251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230783488"/>
+        <c:axId val="226057616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7209,7 +7302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230782928"/>
+        <c:crossAx val="226057056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7498,11 +7591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="230786848"/>
-        <c:axId val="230787408"/>
+        <c:axId val="226489328"/>
+        <c:axId val="226489888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230786848"/>
+        <c:axId val="226489328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7544,7 +7637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230787408"/>
+        <c:crossAx val="226489888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7552,7 +7645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230787408"/>
+        <c:axId val="226489888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7603,7 +7696,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230786848"/>
+        <c:crossAx val="226489328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7893,11 +7986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231109040"/>
-        <c:axId val="231109600"/>
+        <c:axId val="226492688"/>
+        <c:axId val="226493248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231109040"/>
+        <c:axId val="226492688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7939,7 +8032,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231109600"/>
+        <c:crossAx val="226493248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7947,7 +8040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231109600"/>
+        <c:axId val="226493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7998,7 +8091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231109040"/>
+        <c:crossAx val="226492688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8330,11 +8423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231113520"/>
-        <c:axId val="231114080"/>
+        <c:axId val="227674336"/>
+        <c:axId val="227674896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231113520"/>
+        <c:axId val="227674336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8376,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231114080"/>
+        <c:crossAx val="227674896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8384,7 +8477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231114080"/>
+        <c:axId val="227674896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,7 +8528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231113520"/>
+        <c:crossAx val="227674336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8772,11 +8865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231271264"/>
-        <c:axId val="231271824"/>
+        <c:axId val="227678256"/>
+        <c:axId val="227678816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231271264"/>
+        <c:axId val="227678256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8818,7 +8911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231271824"/>
+        <c:crossAx val="227678816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8826,7 +8919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231271824"/>
+        <c:axId val="227678816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8877,7 +8970,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231271264"/>
+        <c:crossAx val="227678256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9220,11 +9313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231275744"/>
-        <c:axId val="231276304"/>
+        <c:axId val="228432064"/>
+        <c:axId val="228432624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231275744"/>
+        <c:axId val="228432064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9266,7 +9359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231276304"/>
+        <c:crossAx val="228432624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9274,7 +9367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231276304"/>
+        <c:axId val="228432624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,7 +9418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231275744"/>
+        <c:crossAx val="228432064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15021,10 +15114,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -15032,6 +15125,8 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15330,7 +15425,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>323</v>
@@ -15348,7 +15443,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -15366,7 +15461,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -15384,7 +15479,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>10000</v>
       </c>
@@ -15404,7 +15499,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>267</v>
@@ -15422,7 +15517,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -15440,7 +15535,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>323</v>
@@ -15458,7 +15553,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -15476,7 +15571,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
@@ -15494,10 +15589,195 @@
         <v>787</v>
       </c>
     </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="38" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="54">
+        <v>1</v>
+      </c>
+      <c r="I30" s="38">
+        <v>3</v>
+      </c>
+      <c r="J30" s="38">
+        <v>5</v>
+      </c>
+      <c r="K30" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="38" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="38" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>1493</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21639,7 +21919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1669">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6287,6 +6287,86 @@
   </si>
   <si>
     <t>n10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir(0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir(0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.72 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.29 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.99 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10122,16 +10202,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$4</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>dir(1)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>dir(10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -10139,17 +10219,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$J$2:$J$4</c:f>
+              <c:f>'different prior for mml'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -10197,16 +10277,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$4</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>dir(1)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>dir(10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -10214,17 +10294,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$K$2:$K$4</c:f>
+              <c:f>'different prior for mml'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
@@ -10272,16 +10352,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$4</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>dir(1)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>dir(10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -10289,17 +10369,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$L$2:$L$4</c:f>
+              <c:f>'different prior for mml'!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
@@ -10347,16 +10427,16 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$4</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>dir(1)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>dir(10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -10364,17 +10444,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$M$2:$M$4</c:f>
+              <c:f>'different prior for mml'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
@@ -15160,13 +15240,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24387,10 +24467,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24450,270 +24530,416 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3">
-        <v>100</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>0.53</v>
-      </c>
-      <c r="L3">
-        <v>0.6</v>
-      </c>
-      <c r="M3">
-        <v>0.74</v>
-      </c>
+        <v>1649</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>0.53</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>1593</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>0.21</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>0.39</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>0.46</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>0.63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
         <v>1593</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>1612</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>1613</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>1614</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="32">
+    <row r="8" spans="1:13">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="32">
         <v>500</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B10" s="32" t="s">
         <v>1591</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>1580</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>1601</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>1602</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1606</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
         <v>1593</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>1616</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>1617</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>1618</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>1619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="32">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="32">
-        <v>10000</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1641</v>
+        <v>1649</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="32">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>1608</v>
       </c>
-      <c r="D14" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="D15" s="23" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="32">
+        <v>10000</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="1494">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5596,6 +5596,110 @@
   </si>
   <si>
     <t>0.06 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.22 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.28 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.23 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.27 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.57 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8045,6 +8149,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8374,6 +8479,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8481,6 +8587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8816,6 +8923,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8923,6 +9031,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9264,6 +9373,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14538,7 +14648,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24880,10 +24990,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25379,8 +25489,228 @@
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3">
+        <v>100</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>500</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>1222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -27094,7 +27424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -24993,7 +24993,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhDProjects\RStudioProjects\mbDiscoveryR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -34,11 +29,11 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -6374,18 +6369,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6394,20 +6389,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6416,7 +6411,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6424,7 +6419,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6433,29 +6428,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri Light"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6487,7 +6482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -6500,7 +6495,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6508,9 +6503,71 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6615,7 +6672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6771,41 +6828,65 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6823,7 +6904,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6860,7 +6941,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6915,16 +6996,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,7 +7017,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82</c:v>
@@ -6945,7 +7026,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6997,16 +7078,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7018,7 +7099,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84</c:v>
@@ -7027,7 +7108,7 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7079,16 +7160,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,16 +7242,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7208,11 +7289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222341744"/>
-        <c:axId val="222342304"/>
+        <c:axId val="2081738344"/>
+        <c:axId val="2081743560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222341744"/>
+        <c:axId val="2081738344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7252,10 +7333,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222342304"/>
+        <c:crossAx val="2081743560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7263,7 +7344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222342304"/>
+        <c:axId val="2081743560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7311,10 +7392,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222341744"/>
+        <c:crossAx val="2081738344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7353,7 +7434,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7383,7 +7464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7397,7 +7478,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7434,7 +7515,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7489,16 +7570,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7516,7 +7597,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72</c:v>
@@ -7571,16 +7652,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7653,16 +7734,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7735,16 +7816,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7762,7 +7843,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73</c:v>
@@ -7782,11 +7863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222875504"/>
-        <c:axId val="222876064"/>
+        <c:axId val="2088437448"/>
+        <c:axId val="2088381576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222875504"/>
+        <c:axId val="2088437448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7826,10 +7907,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222876064"/>
+        <c:crossAx val="2088381576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7837,7 +7918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222876064"/>
+        <c:axId val="2088381576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7885,10 +7966,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222875504"/>
+        <c:crossAx val="2088437448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7927,7 +8008,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7957,7 +8038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7971,7 +8052,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8017,26 +8098,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8176,11 +8237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222879424"/>
-        <c:axId val="222879984"/>
+        <c:axId val="2081028168"/>
+        <c:axId val="2088344040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222879424"/>
+        <c:axId val="2081028168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8219,10 +8280,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222879984"/>
+        <c:crossAx val="2088344040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8230,7 +8291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222879984"/>
+        <c:axId val="2088344040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,10 +8339,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222879424"/>
+        <c:crossAx val="2081028168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8320,7 +8381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8350,7 +8411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8364,7 +8425,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8410,26 +8471,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8546,7 +8587,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.73</c:v>
@@ -8569,11 +8610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222882784"/>
-        <c:axId val="223348320"/>
+        <c:axId val="2077909528"/>
+        <c:axId val="2081764776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222882784"/>
+        <c:axId val="2077909528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8612,10 +8653,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223348320"/>
+        <c:crossAx val="2081764776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8623,7 +8664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223348320"/>
+        <c:axId val="2081764776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8671,10 +8712,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222882784"/>
+        <c:crossAx val="2077909528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8713,7 +8754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8743,7 +8784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8757,7 +8798,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8795,7 +8836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8804,26 +8844,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8876,7 +8896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8928,7 +8948,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8980,16 +9000,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9006,11 +9026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223351680"/>
-        <c:axId val="223352240"/>
+        <c:axId val="2089443448"/>
+        <c:axId val="2088292376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223351680"/>
+        <c:axId val="2089443448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,10 +9069,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223352240"/>
+        <c:crossAx val="2088292376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9060,7 +9080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223352240"/>
+        <c:axId val="2088292376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9108,10 +9128,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223351680"/>
+        <c:crossAx val="2089443448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9125,7 +9145,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9151,7 +9170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9181,7 +9200,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9195,7 +9214,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9233,7 +9252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9242,26 +9260,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9363,16 +9361,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9424,16 +9422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9450,11 +9448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223355600"/>
-        <c:axId val="224268480"/>
+        <c:axId val="2087801048"/>
+        <c:axId val="2087837656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223355600"/>
+        <c:axId val="2087801048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9493,10 +9491,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224268480"/>
+        <c:crossAx val="2087837656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9504,7 +9502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224268480"/>
+        <c:axId val="2087837656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9552,10 +9550,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223355600"/>
+        <c:crossAx val="2087801048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9569,7 +9567,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9595,7 +9592,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9625,7 +9622,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9639,7 +9636,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9677,7 +9674,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9686,26 +9682,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9755,7 +9731,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9807,19 +9783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9871,19 +9847,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9900,11 +9876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224272400"/>
-        <c:axId val="224272960"/>
+        <c:axId val="2080960008"/>
+        <c:axId val="2080965112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224272400"/>
+        <c:axId val="2080960008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9943,10 +9919,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224272960"/>
+        <c:crossAx val="2080965112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9954,7 +9930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224272960"/>
+        <c:axId val="2080965112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10002,10 +9978,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224272400"/>
+        <c:crossAx val="2080960008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10019,7 +9995,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10045,7 +10020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10075,7 +10050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10089,7 +10064,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10135,26 +10110,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10472,11 +10427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263425232"/>
-        <c:axId val="263372896"/>
+        <c:axId val="2081323912"/>
+        <c:axId val="2081329496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263425232"/>
+        <c:axId val="2081323912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10516,10 +10471,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263372896"/>
+        <c:crossAx val="2081329496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10527,7 +10482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263372896"/>
+        <c:axId val="2081329496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,10 +10530,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263425232"/>
+        <c:crossAx val="2081323912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10618,7 +10573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10648,7 +10603,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15524,7 +15479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15538,15 +15493,15 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16355,8 +16310,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16373,11 +16328,11 @@
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16859,13 +16814,13 @@
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17881,7 +17836,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17898,17 +17853,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18649,7 +18604,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18666,14 +18621,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19201,7 +19156,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19218,12 +19173,12 @@
       <selection activeCell="I2" sqref="I2:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -19884,7 +19839,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19896,12 +19856,12 @@
       <selection activeCell="D2" sqref="D2:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -20280,6 +20240,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20291,12 +20256,12 @@
       <selection activeCell="A65" sqref="A65:K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20305,7 +20270,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>1104</v>
       </c>
@@ -20331,7 +20296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>1055</v>
       </c>
@@ -20360,7 +20325,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>1056</v>
       </c>
@@ -20389,7 +20354,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
         <v>1057</v>
       </c>
@@ -20418,7 +20383,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>1058</v>
       </c>
@@ -21665,7 +21630,7 @@
         <v>0.97 $\pm$ 0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="40.5">
+    <row r="48" spans="1:11" ht="28">
       <c r="A48" s="36" t="s">
         <v>1307</v>
       </c>
@@ -23292,7 +23257,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -23304,12 +23274,12 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24187,7 +24157,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24199,11 +24174,11 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24462,6 +24437,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24469,15 +24449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -24690,22 +24670,22 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="32">
+      <c r="A10" s="3">
         <v>500</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="4" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -24782,22 +24762,22 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="32">
+      <c r="A15" s="3">
         <v>1000</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="4" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -24838,25 +24818,25 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="32" t="s">
         <v>1649</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="54" t="s">
         <v>1638</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="54" t="s">
         <v>1665</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="54" t="s">
         <v>1666</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="55" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="3" t="s">
         <v>1650</v>
       </c>
@@ -24869,15 +24849,15 @@
       <c r="E19" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="57" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="32">
+      <c r="A20" s="56">
         <v>10000</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="3" t="s">
         <v>1591</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -24889,43 +24869,43 @@
       <c r="E20" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="57" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="58" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="30" t="s">
         <v>1593</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="21" t="s">
         <v>1608</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="21" t="s">
         <v>1642</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="21" t="s">
         <v>1643</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="60" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -24944,8 +24924,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -24953,16 +24938,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -26051,8 +26036,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26069,11 +26054,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26657,12 +26642,12 @@
       <selection activeCell="B2" sqref="B2:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -27517,12 +27502,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -28106,17 +28091,17 @@
       <selection activeCell="B1" sqref="B1:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="4"/>
-    <col min="9" max="9" width="21.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11" style="4"/>
@@ -29480,11 +29465,11 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -30642,13 +30627,13 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -31976,7 +31961,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -31993,12 +31978,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -32496,6 +32481,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="1494">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9556,22 +9556,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>dir(0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dir(0.5)</c:v>
+                  <c:v>dir(1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>dir(1)</c:v>
+                  <c:v>dir(10)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dir(10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9579,10 +9576,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$J$2:$J$6</c:f>
+              <c:f>'different prior for mml'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
@@ -9590,12 +9587,9 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -9643,22 +9637,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>dir(0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dir(0.5)</c:v>
+                  <c:v>dir(1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>dir(1)</c:v>
+                  <c:v>dir(10)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dir(10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9666,10 +9657,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$K$2:$K$6</c:f>
+              <c:f>'different prior for mml'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -9677,12 +9668,9 @@
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
@@ -9730,22 +9718,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>dir(0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dir(0.5)</c:v>
+                  <c:v>dir(1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>dir(1)</c:v>
+                  <c:v>dir(10)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dir(10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9753,10 +9738,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$L$2:$L$6</c:f>
+              <c:f>'different prior for mml'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -9764,12 +9749,9 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
@@ -9817,22 +9799,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'different prior for mml'!$I$2:$I$6</c:f>
+              <c:f>'different prior for mml'!$I$2:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>dir(0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>dir(0.5)</c:v>
+                  <c:v>dir(1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>dir(1)</c:v>
+                  <c:v>dir(10)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dir(10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>dir(100)</c:v>
                 </c:pt>
               </c:strCache>
@@ -9840,10 +9819,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'different prior for mml'!$M$2:$M$6</c:f>
+              <c:f>'different prior for mml'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.79</c:v>
                 </c:pt>
@@ -9851,12 +9830,9 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
@@ -14641,15 +14617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24993,7 +24969,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25070,7 +25046,7 @@
         <v>1203</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1200</v>
+        <v>1141</v>
       </c>
       <c r="J3">
         <v>0.35</v>
@@ -25103,19 +25079,19 @@
         <v>1205</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="J4">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="L4">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
-        <v>0.81</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -25137,20 +25113,20 @@
       <c r="F5" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>1142</v>
+      <c r="I5" s="30" t="s">
+        <v>1143</v>
       </c>
       <c r="J5">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="K5">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="L5">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="M5">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -25170,21 +25146,6 @@
       <c r="F6" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J6">
-        <v>0.21</v>
-      </c>
-      <c r="K6">
-        <v>0.39</v>
-      </c>
-      <c r="L6">
-        <v>0.46</v>
-      </c>
-      <c r="M6">
-        <v>0.63</v>
-      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="30"/>
@@ -25370,7 +25331,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:13">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
         <v>1143</v>
@@ -25388,7 +25349,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:13">
       <c r="A18" s="32"/>
       <c r="B18" s="32" t="s">
         <v>1199</v>
@@ -25406,7 +25367,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>1200</v>
@@ -25424,7 +25385,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>10000</v>
       </c>
@@ -25444,7 +25405,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:13">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>1142</v>
@@ -25462,7 +25423,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:13">
       <c r="A22" s="30"/>
       <c r="B22" s="30" t="s">
         <v>1143</v>
@@ -25480,15 +25441,15 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:13">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:13">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>100</v>
       </c>
@@ -25507,8 +25468,20 @@
       <c r="F25" s="13" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="J25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>1142</v>
@@ -25525,8 +25498,23 @@
       <c r="F26" s="13" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J26">
+        <v>0.11</v>
+      </c>
+      <c r="K26">
+        <v>0.22</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="M26">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
         <v>1143</v>
@@ -25543,8 +25531,23 @@
       <c r="F27" s="21" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J27">
+        <v>0.11</v>
+      </c>
+      <c r="K27">
+        <v>0.27</v>
+      </c>
+      <c r="L27">
+        <v>0.39</v>
+      </c>
+      <c r="M27">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>500</v>
       </c>
@@ -25563,8 +25566,23 @@
       <c r="F28" s="13" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" s="30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J28">
+        <v>0.11</v>
+      </c>
+      <c r="K28">
+        <v>0.24</v>
+      </c>
+      <c r="L28">
+        <v>0.34</v>
+      </c>
+      <c r="M28">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>1142</v>
@@ -25582,7 +25600,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:13">
       <c r="A30" s="30"/>
       <c r="B30" s="30" t="s">
         <v>1143</v>
@@ -25600,7 +25618,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>1000</v>
       </c>
@@ -25620,7 +25638,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:13">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>1142</v>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhDProjects\RStudioProjects\mbDiscoveryR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -26,21 +31,22 @@
     <sheet name="optimization on 34.4.4.1" sheetId="22" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="17" r:id="rId18"/>
     <sheet name="different prior for mml" sheetId="23" r:id="rId19"/>
+    <sheet name="mrmr" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1690">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6362,6 +6368,90 @@
   </si>
   <si>
     <t>0.99 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrmr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.52 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.59 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-5-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.08 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6369,18 +6459,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6389,20 +6479,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6411,7 +6501,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6419,7 +6509,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6428,29 +6518,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6854,39 +6944,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6904,7 +6994,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6941,7 +7031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6996,16 +7086,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7017,7 +7107,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82</c:v>
@@ -7026,7 +7116,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7078,16 +7168,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7099,7 +7189,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.84</c:v>
@@ -7108,7 +7198,7 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,16 +7250,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7242,16 +7332,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7289,11 +7379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081738344"/>
-        <c:axId val="2081743560"/>
+        <c:axId val="223160416"/>
+        <c:axId val="223160976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081738344"/>
+        <c:axId val="223160416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,10 +7423,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081743560"/>
+        <c:crossAx val="223160976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7344,7 +7434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081743560"/>
+        <c:axId val="223160976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7392,10 +7482,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081738344"/>
+        <c:crossAx val="223160416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,7 +7524,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7464,7 +7554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7478,7 +7568,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7515,7 +7605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7570,16 +7660,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,7 +7687,7 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.72</c:v>
@@ -7652,16 +7742,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7734,16 +7824,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7816,16 +7906,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7843,7 +7933,7 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.73</c:v>
@@ -7863,11 +7953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088437448"/>
-        <c:axId val="2088381576"/>
+        <c:axId val="222964688"/>
+        <c:axId val="222965248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088437448"/>
+        <c:axId val="222964688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7907,10 +7997,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088381576"/>
+        <c:crossAx val="222965248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7918,7 +8008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088381576"/>
+        <c:axId val="222965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7966,10 +8056,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088437448"/>
+        <c:crossAx val="222964688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8008,7 +8098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8038,7 +8128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8052,7 +8142,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8098,6 +8188,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8237,11 +8347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081028168"/>
-        <c:axId val="2088344040"/>
+        <c:axId val="223898224"/>
+        <c:axId val="223898784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081028168"/>
+        <c:axId val="223898224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8280,10 +8390,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088344040"/>
+        <c:crossAx val="223898784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8291,7 +8401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088344040"/>
+        <c:axId val="223898784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8339,10 +8449,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081028168"/>
+        <c:crossAx val="223898224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8381,7 +8491,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8411,7 +8521,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8425,7 +8535,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8471,6 +8581,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8587,7 +8717,7 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.73</c:v>
@@ -8610,11 +8740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077909528"/>
-        <c:axId val="2081764776"/>
+        <c:axId val="223901584"/>
+        <c:axId val="223948432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077909528"/>
+        <c:axId val="223901584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,10 +8783,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081764776"/>
+        <c:crossAx val="223948432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8664,7 +8794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081764776"/>
+        <c:axId val="223948432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8712,10 +8842,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077909528"/>
+        <c:crossAx val="223901584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8754,7 +8884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8784,7 +8914,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8798,7 +8928,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8836,6 +8966,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8844,6 +8975,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8896,7 +9047,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8948,7 +9099,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9000,16 +9151,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9026,11 +9177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089443448"/>
-        <c:axId val="2088292376"/>
+        <c:axId val="223951792"/>
+        <c:axId val="223659904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089443448"/>
+        <c:axId val="223951792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9069,10 +9220,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088292376"/>
+        <c:crossAx val="223659904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9080,7 +9231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088292376"/>
+        <c:axId val="223659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9128,10 +9279,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089443448"/>
+        <c:crossAx val="223951792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9145,6 +9296,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9170,7 +9322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9200,7 +9352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9214,7 +9366,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9252,6 +9404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9260,6 +9413,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9361,16 +9534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9422,16 +9595,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9448,11 +9621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087801048"/>
-        <c:axId val="2087837656"/>
+        <c:axId val="225027920"/>
+        <c:axId val="225028480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087801048"/>
+        <c:axId val="225027920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,10 +9664,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087837656"/>
+        <c:crossAx val="225028480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9502,7 +9675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087837656"/>
+        <c:axId val="225028480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9550,10 +9723,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087801048"/>
+        <c:crossAx val="225027920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9567,6 +9740,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9592,7 +9766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9622,7 +9796,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9636,7 +9810,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9674,6 +9848,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9682,6 +9857,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9731,7 +9926,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9783,19 +9978,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9847,19 +10042,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9876,11 +10071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2080960008"/>
-        <c:axId val="2080965112"/>
+        <c:axId val="225021840"/>
+        <c:axId val="225022400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2080960008"/>
+        <c:axId val="225021840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9919,10 +10114,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080965112"/>
+        <c:crossAx val="225022400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9930,7 +10125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080965112"/>
+        <c:axId val="225022400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9978,10 +10173,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080960008"/>
+        <c:crossAx val="225021840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9995,6 +10190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10020,7 +10216,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10050,7 +10246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10064,7 +10260,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10110,6 +10306,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10427,11 +10643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081323912"/>
-        <c:axId val="2081329496"/>
+        <c:axId val="224796608"/>
+        <c:axId val="225230560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081323912"/>
+        <c:axId val="224796608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10471,10 +10687,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081329496"/>
+        <c:crossAx val="225230560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10482,7 +10698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081329496"/>
+        <c:axId val="225230560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10530,10 +10746,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081323912"/>
+        <c:crossAx val="224796608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10573,7 +10789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10603,7 +10819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15479,7 +15695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15493,15 +15709,15 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16328,11 +16544,11 @@
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16814,13 +17030,13 @@
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17853,17 +18069,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -18621,14 +18837,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19173,12 +19389,12 @@
       <selection activeCell="I2" sqref="I2:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -19856,12 +20072,12 @@
       <selection activeCell="D2" sqref="D2:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -20256,12 +20472,12 @@
       <selection activeCell="A65" sqref="A65:K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20270,7 +20486,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1104</v>
       </c>
@@ -20296,7 +20512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1055</v>
       </c>
@@ -20325,7 +20541,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1056</v>
       </c>
@@ -20354,7 +20570,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1057</v>
       </c>
@@ -20383,7 +20599,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>1058</v>
       </c>
@@ -21630,7 +21846,7 @@
         <v>0.97 $\pm$ 0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28">
+    <row r="48" spans="1:11" ht="40.5">
       <c r="A48" s="36" t="s">
         <v>1307</v>
       </c>
@@ -23270,16 +23486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24174,11 +24390,11 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24449,15 +24665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -24942,12 +25158,12 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -26046,6 +26262,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>CONCATENATE(LEFT(D2,SEARCH(" ",D2,1)), "$\pm$", RIGHT(D2,SEARCH(" ",D2,1)))</f>
+        <v>0.52 $\pm$ 0.01</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J2:L2" si="0">CONCATENATE(LEFT(E2,SEARCH(" ",E2,1)), "$\pm$", RIGHT(E2,SEARCH(" ",E2,1)))</f>
+        <v>0.52 $\pm$ 0.01</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.67 $\pm$ 0.02</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.52 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I5" si="1">CONCATENATE(LEFT(D3,SEARCH(" ",D3,1)), "$\pm$", RIGHT(D3,SEARCH(" ",D3,1)))</f>
+        <v>0.62 $\pm$ 0.01</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J5" si="2">CONCATENATE(LEFT(E3,SEARCH(" ",E3,1)), "$\pm$", RIGHT(E3,SEARCH(" ",E3,1)))</f>
+        <v>0.62 $\pm$ 0.01</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K5" si="3">CONCATENATE(LEFT(F3,SEARCH(" ",F3,1)), "$\pm$", RIGHT(F3,SEARCH(" ",F3,1)))</f>
+        <v>0.54 $\pm$ 0.02</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" ref="L3:L5" si="4">CONCATENATE(LEFT(G3,SEARCH(" ",G3,1)), "$\pm$", RIGHT(G3,SEARCH(" ",G3,1)))</f>
+        <v>0.62 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.64 $\pm$ 0.01</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.64 $\pm$ 0.01</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0.51 $\pm$ 0.01</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0.64 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.64 $\pm$ 0.00</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.64 $\pm$ 0.00</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0.5 $\pm$0.01</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0.64 $\pm$ 0.00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>CONCATENATE(LEFT(D8,SEARCH(" ",D8,1)), "$\pm$", RIGHT(D8,SEARCH(" ",D8,1)))</f>
+        <v>0.34 $\pm$ 0.01</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" ref="J8:J11" si="5">CONCATENATE(LEFT(E8,SEARCH(" ",E8,1)), "$\pm$", RIGHT(E8,SEARCH(" ",E8,1)))</f>
+        <v>0.34 $\pm$ 0.01</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" ref="K8:K11" si="6">CONCATENATE(LEFT(F8,SEARCH(" ",F8,1)), "$\pm$", RIGHT(F8,SEARCH(" ",F8,1)))</f>
+        <v>0.93 $\pm$ 0.01</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" ref="L8:L11" si="7">CONCATENATE(LEFT(G8,SEARCH(" ",G8,1)), "$\pm$", RIGHT(G8,SEARCH(" ",G8,1)))</f>
+        <v>0.34 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" ref="I9:I11" si="8">CONCATENATE(LEFT(D9,SEARCH(" ",D9,1)), "$\pm$", RIGHT(D9,SEARCH(" ",D9,1)))</f>
+        <v>0.45 $\pm$ 0.01</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0.45 $\pm$ 0.01</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>0.78 $\pm$ 0.02</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>0.45 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0.5 $\pm$0.01</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0.5 $\pm$0.01</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>0.71 $\pm$ 0.02</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>0.5 $\pm$0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0.59 $\pm$ 0.01</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0.59 $\pm$ 0.01</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>0.58 $\pm$ 0.01</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>0.59 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>CONCATENATE(LEFT(D14,SEARCH(" ",D14,1)), "$\pm$", RIGHT(D14,SEARCH(" ",D14,1)))</f>
+        <v>0.24 $\pm$ 0.01</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" ref="J14:J16" si="9">CONCATENATE(LEFT(E14,SEARCH(" ",E14,1)), "$\pm$", RIGHT(E14,SEARCH(" ",E14,1)))</f>
+        <v>0.24 $\pm$ 0.01</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" ref="K14:K16" si="10">CONCATENATE(LEFT(F14,SEARCH(" ",F14,1)), "$\pm$", RIGHT(F14,SEARCH(" ",F14,1)))</f>
+        <v>1.08 $\pm$ 0.01</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f t="shared" ref="L14:L16" si="11">CONCATENATE(LEFT(G14,SEARCH(" ",G14,1)), "$\pm$", RIGHT(G14,SEARCH(" ",G14,1)))</f>
+        <v>0.24 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I15" s="4" t="e">
+        <f t="shared" ref="I15:I16" si="12">CONCATENATE(LEFT(D15,SEARCH(" ",D15,1)), "$\pm$", RIGHT(D15,SEARCH(" ",D15,1)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J15" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L15" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I16" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
@@ -26054,11 +26732,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26642,12 +27320,12 @@
       <selection activeCell="B2" sqref="B2:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -27502,12 +28180,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -28091,17 +28769,17 @@
       <selection activeCell="B1" sqref="B1:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="4"/>
-    <col min="9" max="9" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11" style="4"/>
@@ -29465,11 +30143,11 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -30627,13 +31305,13 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -31978,12 +32656,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1696">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6452,6 +6452,30 @@
   </si>
   <si>
     <t>1.08 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7379,11 +7403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223160416"/>
-        <c:axId val="223160976"/>
+        <c:axId val="222930128"/>
+        <c:axId val="222930688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223160416"/>
+        <c:axId val="222930128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7426,7 +7450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223160976"/>
+        <c:crossAx val="222930688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7434,7 +7458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223160976"/>
+        <c:axId val="222930688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7485,7 +7509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223160416"/>
+        <c:crossAx val="222930128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7953,11 +7977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222964688"/>
-        <c:axId val="222965248"/>
+        <c:axId val="223957344"/>
+        <c:axId val="223957904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222964688"/>
+        <c:axId val="223957344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8000,7 +8024,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222965248"/>
+        <c:crossAx val="223957904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8008,7 +8032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222965248"/>
+        <c:axId val="223957904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,7 +8083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222964688"/>
+        <c:crossAx val="223957344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8347,11 +8371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223898224"/>
-        <c:axId val="223898784"/>
+        <c:axId val="223961264"/>
+        <c:axId val="223961824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223898224"/>
+        <c:axId val="223961264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8393,7 +8417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223898784"/>
+        <c:crossAx val="223961824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8401,7 +8425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223898784"/>
+        <c:axId val="223961824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8452,7 +8476,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223898224"/>
+        <c:crossAx val="223961264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8740,11 +8764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223901584"/>
-        <c:axId val="223948432"/>
+        <c:axId val="224093184"/>
+        <c:axId val="224093744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223901584"/>
+        <c:axId val="224093184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8786,7 +8810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223948432"/>
+        <c:crossAx val="224093744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8794,7 +8818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223948432"/>
+        <c:axId val="224093744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8845,7 +8869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223901584"/>
+        <c:crossAx val="224093184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8966,7 +8990,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9177,11 +9200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223951792"/>
-        <c:axId val="223659904"/>
+        <c:axId val="225255104"/>
+        <c:axId val="225255664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223951792"/>
+        <c:axId val="225255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9223,7 +9246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223659904"/>
+        <c:crossAx val="225255664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9231,7 +9254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223659904"/>
+        <c:axId val="225255664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9282,7 +9305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223951792"/>
+        <c:crossAx val="225255104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9296,7 +9319,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9404,7 +9426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9621,11 +9642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225027920"/>
-        <c:axId val="225028480"/>
+        <c:axId val="225259024"/>
+        <c:axId val="225259584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225027920"/>
+        <c:axId val="225259024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9667,7 +9688,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225028480"/>
+        <c:crossAx val="225259584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9675,7 +9696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225028480"/>
+        <c:axId val="225259584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9726,7 +9747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225027920"/>
+        <c:crossAx val="225259024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9740,7 +9761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9848,7 +9868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10071,11 +10090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225021840"/>
-        <c:axId val="225022400"/>
+        <c:axId val="226575760"/>
+        <c:axId val="226576320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225021840"/>
+        <c:axId val="226575760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10117,7 +10136,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225022400"/>
+        <c:crossAx val="226576320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10125,7 +10144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225022400"/>
+        <c:axId val="226576320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10176,7 +10195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225021840"/>
+        <c:crossAx val="226575760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10190,7 +10209,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10297,7 +10315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10643,11 +10660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224796608"/>
-        <c:axId val="225230560"/>
+        <c:axId val="227284416"/>
+        <c:axId val="227284976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224796608"/>
+        <c:axId val="227284416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10690,7 +10707,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225230560"/>
+        <c:crossAx val="227284976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10698,7 +10715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225230560"/>
+        <c:axId val="227284976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10749,7 +10766,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224796608"/>
+        <c:crossAx val="227284416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10763,7 +10780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26267,7 +26283,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26641,7 +26657,7 @@
         <v>1670</v>
       </c>
       <c r="D14" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="E14" t="s">
         <v>1688</v>
@@ -26676,21 +26692,33 @@
       <c r="C15" t="s">
         <v>1670</v>
       </c>
-      <c r="I15" s="4" t="e">
+      <c r="D15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I15" s="4" t="str">
         <f t="shared" ref="I15:I16" si="12">CONCATENATE(LEFT(D15,SEARCH(" ",D15,1)), "$\pm$", RIGHT(D15,SEARCH(" ",D15,1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="4" t="e">
+        <v>0.35 $\pm$ 0.01</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="4" t="e">
+        <v>0.35 $\pm$ 0.01</v>
+      </c>
+      <c r="K15" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="4" t="e">
+        <v>0.92 $\pm$ 0.01</v>
+      </c>
+      <c r="L15" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>0.35 $\pm$ 0.01</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -26700,21 +26728,33 @@
       <c r="C16" t="s">
         <v>1670</v>
       </c>
-      <c r="I16" s="4" t="e">
+      <c r="D16" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I16" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="4" t="e">
+        <v>0.4 $\pm$0.01</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="4" t="e">
+        <v>0.4 $\pm$0.01</v>
+      </c>
+      <c r="K16" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="4" t="e">
+        <v>0.85 $\pm$ 0.01</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>0.4 $\pm$0.01</v>
       </c>
     </row>
   </sheetData>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -31,7 +31,7 @@
     <sheet name="optimization on 34.4.4.1" sheetId="22" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="17" r:id="rId18"/>
     <sheet name="different prior for mml" sheetId="23" r:id="rId19"/>
-    <sheet name="mrmr" sheetId="24" r:id="rId20"/>
+    <sheet name="mrmr &amp; reliefF" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1706">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6476,6 +6476,46 @@
   </si>
   <si>
     <t>0.85 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-4-4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.82 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7403,11 +7443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222930128"/>
-        <c:axId val="222930688"/>
+        <c:axId val="79331408"/>
+        <c:axId val="79331968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222930128"/>
+        <c:axId val="79331408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,7 +7490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222930688"/>
+        <c:crossAx val="79331968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7458,7 +7498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222930688"/>
+        <c:axId val="79331968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7509,7 +7549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222930128"/>
+        <c:crossAx val="79331408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7977,11 +8017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223957344"/>
-        <c:axId val="223957904"/>
+        <c:axId val="228270176"/>
+        <c:axId val="228270736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223957344"/>
+        <c:axId val="228270176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8024,7 +8064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223957904"/>
+        <c:crossAx val="228270736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8032,7 +8072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223957904"/>
+        <c:axId val="228270736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8083,7 +8123,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223957344"/>
+        <c:crossAx val="228270176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8371,11 +8411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223961264"/>
-        <c:axId val="223961824"/>
+        <c:axId val="228274096"/>
+        <c:axId val="228274656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223961264"/>
+        <c:axId val="228274096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8417,7 +8457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223961824"/>
+        <c:crossAx val="228274656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8425,7 +8465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223961824"/>
+        <c:axId val="228274656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8476,7 +8516,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223961264"/>
+        <c:crossAx val="228274096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8764,11 +8804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224093184"/>
-        <c:axId val="224093744"/>
+        <c:axId val="229265584"/>
+        <c:axId val="229266144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224093184"/>
+        <c:axId val="229265584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8810,7 +8850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224093744"/>
+        <c:crossAx val="229266144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8818,7 +8858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224093744"/>
+        <c:axId val="229266144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8869,7 +8909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224093184"/>
+        <c:crossAx val="229265584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9200,11 +9240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225255104"/>
-        <c:axId val="225255664"/>
+        <c:axId val="229269504"/>
+        <c:axId val="229270064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225255104"/>
+        <c:axId val="229269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9246,7 +9286,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225255664"/>
+        <c:crossAx val="229270064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9254,7 +9294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225255664"/>
+        <c:axId val="229270064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9305,7 +9345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225255104"/>
+        <c:crossAx val="229269504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9642,11 +9682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225259024"/>
-        <c:axId val="225259584"/>
+        <c:axId val="230159216"/>
+        <c:axId val="230159776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225259024"/>
+        <c:axId val="230159216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9688,7 +9728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225259584"/>
+        <c:crossAx val="230159776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9696,7 +9736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225259584"/>
+        <c:axId val="230159776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9747,7 +9787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225259024"/>
+        <c:crossAx val="230159216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10090,11 +10130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226575760"/>
-        <c:axId val="226576320"/>
+        <c:axId val="230163696"/>
+        <c:axId val="230164256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226575760"/>
+        <c:axId val="230163696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10136,7 +10176,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226576320"/>
+        <c:crossAx val="230164256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10144,7 +10184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226576320"/>
+        <c:axId val="230164256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10195,7 +10235,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226575760"/>
+        <c:crossAx val="230163696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10660,11 +10700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227284416"/>
-        <c:axId val="227284976"/>
+        <c:axId val="229344064"/>
+        <c:axId val="229344624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227284416"/>
+        <c:axId val="229344064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,7 +10747,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227284976"/>
+        <c:crossAx val="229344624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10715,7 +10755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227284976"/>
+        <c:axId val="229344624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10766,7 +10806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227284416"/>
+        <c:crossAx val="229344064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26280,10 +26320,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26755,6 +26795,173 @@
       <c r="L16" s="4" t="str">
         <f t="shared" si="11"/>
         <v>0.4 $\pm$0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>CONCATENATE(LEFT(D20,SEARCH(" ",D20,1)), "$\pm$", RIGHT(D20,SEARCH(" ",D20,1)))</f>
+        <v>0.47 $\pm$ 0.02</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" ref="J20:J23" si="13">CONCATENATE(LEFT(E20,SEARCH(" ",E20,1)), "$\pm$", RIGHT(E20,SEARCH(" ",E20,1)))</f>
+        <v>0.47 $\pm$ 0.02</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" ref="K20:K23" si="14">CONCATENATE(LEFT(F20,SEARCH(" ",F20,1)), "$\pm$", RIGHT(F20,SEARCH(" ",F20,1)))</f>
+        <v>0.75 $\pm$ 0.03</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" ref="L20:L23" si="15">CONCATENATE(LEFT(G20,SEARCH(" ",G20,1)), "$\pm$", RIGHT(G20,SEARCH(" ",G20,1)))</f>
+        <v>0.47 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" ref="I21:I23" si="16">CONCATENATE(LEFT(D21,SEARCH(" ",D21,1)), "$\pm$", RIGHT(D21,SEARCH(" ",D21,1)))</f>
+        <v>0.71 $\pm$ 0.02</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>0.71 $\pm$ 0.02</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>0.41 $\pm$ 0.02</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.71 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>0.33 $\pm$ 0.02</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.76 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>0.82 $\pm$ 0.01</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>0.25 $\pm$ 0.02</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0.82 $\pm$ 0.01</v>
       </c>
     </row>
   </sheetData>

--- a/RStudioProjects/mbDiscoveryR/test results.xlsx
+++ b/RStudioProjects/mbDiscoveryR/test results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="synthetic" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1715">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6516,6 +6516,42 @@
   </si>
   <si>
     <t>0.25 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrmr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.49 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.56 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.64 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.51 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45 0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7443,11 +7479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79331408"/>
-        <c:axId val="79331968"/>
+        <c:axId val="221972800"/>
+        <c:axId val="221973360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79331408"/>
+        <c:axId val="221972800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7490,7 +7526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79331968"/>
+        <c:crossAx val="221973360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7498,7 +7534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79331968"/>
+        <c:axId val="221973360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7549,7 +7585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79331408"/>
+        <c:crossAx val="221972800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8017,11 +8053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228270176"/>
-        <c:axId val="228270736"/>
+        <c:axId val="222383424"/>
+        <c:axId val="222383984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228270176"/>
+        <c:axId val="222383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8064,7 +8100,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228270736"/>
+        <c:crossAx val="222383984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8072,7 +8108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228270736"/>
+        <c:axId val="222383984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8123,7 +8159,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228270176"/>
+        <c:crossAx val="222383424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8411,11 +8447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228274096"/>
-        <c:axId val="228274656"/>
+        <c:axId val="222387344"/>
+        <c:axId val="222387904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228274096"/>
+        <c:axId val="222387344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8457,7 +8493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228274656"/>
+        <c:crossAx val="222387904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8465,7 +8501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228274656"/>
+        <c:axId val="222387904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8516,7 +8552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228274096"/>
+        <c:crossAx val="222387344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8804,11 +8840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229265584"/>
-        <c:axId val="229266144"/>
+        <c:axId val="223143936"/>
+        <c:axId val="223144496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229265584"/>
+        <c:axId val="223143936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8850,7 +8886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229266144"/>
+        <c:crossAx val="223144496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8858,7 +8894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229266144"/>
+        <c:axId val="223144496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8909,7 +8945,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229265584"/>
+        <c:crossAx val="223143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9030,6 +9066,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9240,11 +9277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229269504"/>
-        <c:axId val="229270064"/>
+        <c:axId val="223147856"/>
+        <c:axId val="223148416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229269504"/>
+        <c:axId val="223147856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9286,7 +9323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229270064"/>
+        <c:crossAx val="223148416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9294,7 +9331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229270064"/>
+        <c:axId val="223148416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9345,7 +9382,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229269504"/>
+        <c:crossAx val="223147856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9359,6 +9396,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9466,6 +9504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9682,11 +9721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="230159216"/>
-        <c:axId val="230159776"/>
+        <c:axId val="224125376"/>
+        <c:axId val="224125936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230159216"/>
+        <c:axId val="224125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9728,7 +9767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230159776"/>
+        <c:crossAx val="224125936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9736,7 +9775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230159776"/>
+        <c:axId val="224125936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9787,7 +9826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230159216"/>
+        <c:crossAx val="224125376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9801,6 +9840,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9908,6 +9948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10130,11 +10171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="230163696"/>
-        <c:axId val="230164256"/>
+        <c:axId val="224129856"/>
+        <c:axId val="224130416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230163696"/>
+        <c:axId val="224129856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10176,7 +10217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230164256"/>
+        <c:crossAx val="224130416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10184,7 +10225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230164256"/>
+        <c:axId val="224130416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10235,7 +10276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230163696"/>
+        <c:crossAx val="224129856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10249,6 +10290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10355,6 +10397,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10700,11 +10743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229344064"/>
-        <c:axId val="229344624"/>
+        <c:axId val="223840368"/>
+        <c:axId val="223840928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229344064"/>
+        <c:axId val="223840368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10747,7 +10790,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229344624"/>
+        <c:crossAx val="223840928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10755,7 +10798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229344624"/>
+        <c:axId val="223840928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10806,7 +10849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229344064"/>
+        <c:crossAx val="223840368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10820,6 +10863,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26320,10 +26364,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I29" sqref="I29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26962,6 +27006,173 @@
       <c r="L23" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0.82 $\pm$ 0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f>CONCATENATE(LEFT(D26,SEARCH(" ",D26,1)), "$\pm$", RIGHT(D26,SEARCH(" ",D26,1)))</f>
+        <v>0.49 $\pm$ 0.02</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" ref="J26:J29" si="17">CONCATENATE(LEFT(E26,SEARCH(" ",E26,1)), "$\pm$", RIGHT(E26,SEARCH(" ",E26,1)))</f>
+        <v>0.49 $\pm$ 0.02</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" ref="K26:K29" si="18">CONCATENATE(LEFT(F26,SEARCH(" ",F26,1)), "$\pm$", RIGHT(F26,SEARCH(" ",F26,1)))</f>
+        <v>0.73 $\pm$ 0.03</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" ref="L26:L29" si="19">CONCATENATE(LEFT(G26,SEARCH(" ",G26,1)), "$\pm$", RIGHT(G26,SEARCH(" ",G26,1)))</f>
+        <v>0.49 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" ref="I27:I29" si="20">CONCATENATE(LEFT(D27,SEARCH(" ",D27,1)), "$\pm$", RIGHT(D27,SEARCH(" ",D27,1)))</f>
+        <v>0.61 $\pm$ 0.02</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.61 $\pm$ 0.02</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>0.56 $\pm$ 0.03</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0.61 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>0.64 $\pm$ 0.02</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.64 $\pm$ 0.02</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>0.51 $\pm$ 0.03</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0.64 $\pm$ 0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>0.68 $\pm$ 0.01</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0.68 $\pm$ 0.01</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>0.45 $\pm$ 0.02</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>0.68 $\pm$ 0.01</v>
       </c>
     </row>
   </sheetData>
